--- a/Managment/Requirments/ACS_RTM.xlsx
+++ b/Managment/Requirments/ACS_RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
   <si>
     <t>CRS_1</t>
-  </si>
-  <si>
-    <t>User have Temperature mode and Fan mode.</t>
   </si>
   <si>
     <t>Project Name:</t>
@@ -97,21 +94,6 @@
   </si>
   <si>
     <t>2.0.3</t>
-  </si>
-  <si>
-    <t>Hardware delivery.</t>
-  </si>
-  <si>
-    <t>User should be able to Increase/Decrease Air Conditioner Fan speed.</t>
-  </si>
-  <si>
-    <t>User should be able to Increase/Decrease Air Conditioner Temperature.</t>
-  </si>
-  <si>
-    <t>User should be able to Turn ON/OFF Air Conditioner.</t>
-  </si>
-  <si>
-    <t>System shall have the option of Delayed Start/Delayed END.</t>
   </si>
   <si>
     <t>SIQ_1
@@ -348,6 +330,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,24 +373,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,32 +659,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="66.140625" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -723,18 +705,18 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -756,28 +738,28 @@
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" ht="51">
       <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>14</v>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -802,21 +784,19 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>29</v>
+      <c r="C4" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>38</v>
+      <c r="D4" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>2</v>
-      </c>
+      <c r="F4" s="19"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
@@ -839,26 +819,24 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="27" customHeight="1">
-      <c r="A5" s="23">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>5</v>
+      <c r="B5" s="28" t="s">
+        <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>19</v>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>26</v>
+      <c r="E5" s="23" t="s">
+        <v>24</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -879,14 +857,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="52.5" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -911,18 +889,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="28" t="s">
-        <v>25</v>
-      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
       <c r="I7" s="2"/>
@@ -949,18 +925,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="28" t="s">
-        <v>27</v>
-      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="2"/>
@@ -987,18 +961,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="28" t="s">
-        <v>28</v>
-      </c>
+      <c r="F9" s="19"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="1"/>
@@ -1025,18 +997,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="28" t="s">
-        <v>24</v>
-      </c>
+      <c r="F10" s="19"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
@@ -28703,18 +28673,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>15</v>
+      <c r="A1" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>22</v>
+      <c r="A2" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>21</v>
+      <c r="A3" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Managment/Requirments/ACS_RTM.xlsx
+++ b/Managment/Requirments/ACS_RTM.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -66,9 +65,6 @@
 (System Requirments Specification)</t>
   </si>
   <si>
-    <t>Satisfied</t>
-  </si>
-  <si>
     <t>Architectural/Design
  Document</t>
   </si>
@@ -85,12 +81,6 @@
   </si>
   <si>
     <t>SIQ_5</t>
-  </si>
-  <si>
-    <t>Waiting to an answer</t>
-  </si>
-  <si>
-    <t>Unsatisfied</t>
   </si>
   <si>
     <t>2.0.3</t>
@@ -288,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -330,7 +320,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -675,16 +664,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -705,18 +694,18 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -736,11 +725,11 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="51">
+    <row r="3" spans="1:26" s="6" customFormat="1" ht="38.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -749,17 +738,17 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -784,19 +773,19 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>23</v>
+      <c r="C4" s="16" t="s">
+        <v>20</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>32</v>
+      <c r="D4" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
@@ -819,24 +808,24 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="27" customHeight="1">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>18</v>
+      <c r="C5" s="22" t="s">
+        <v>17</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>30</v>
+      <c r="D5" s="22" t="s">
+        <v>27</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>24</v>
+      <c r="E5" s="22" t="s">
+        <v>21</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -857,14 +846,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="52.5" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -892,13 +881,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
       <c r="I7" s="2"/>
@@ -928,13 +917,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="2"/>
@@ -964,13 +953,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="1"/>
@@ -1000,13 +989,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
@@ -28657,38 +28646,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Managment/Requirments/ACS_RTM.xlsx
+++ b/Managment/Requirments/ACS_RTM.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="RTM" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -164,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,20 +224,6 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -278,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -317,15 +303,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -334,6 +311,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -649,7 +632,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -664,16 +647,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -694,18 +677,18 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -729,7 +712,7 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -738,7 +721,7 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -769,63 +752,63 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:26" s="28" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="27" customHeight="1">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -846,14 +829,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="52.5" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -886,8 +869,8 @@
       <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
       <c r="I7" s="2"/>
@@ -922,8 +905,8 @@
       <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="18"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="2"/>
@@ -959,7 +942,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="18"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="1"/>
@@ -995,7 +978,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
@@ -28638,12 +28621,7 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3" display="SIQ.xlsx"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Managment/Requirments/ACS_RTM.xlsx
+++ b/Managment/Requirments/ACS_RTM.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -83,17 +83,9 @@
     <t>SIQ_5</t>
   </si>
   <si>
-    <t>2.0.3</t>
-  </si>
-  <si>
     <t>SIQ_1
 SIQ_4
 SIQ_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.2
-2.0.4
-</t>
   </si>
   <si>
     <t xml:space="preserve">SIQ_7
@@ -160,12 +152,49 @@
 TC_2.3
 TC_2.4</t>
   </si>
+  <si>
+    <t>Version 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Version Number:</t>
+  </si>
+  <si>
+    <t>SRS_4.1.1
+SRS_4.1.2</t>
+  </si>
+  <si>
+    <t>SRS_4.1.3
+SRS_4.1.4
+SRS_4.1.5</t>
+  </si>
+  <si>
+    <t>SRS_2.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SRS_4.1.8
+SRS_4.1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS_4.1.6
+SRS_4.1.7
+</t>
+  </si>
+  <si>
+    <t>SRS_2.2.1
+SRS_2.2.2
+SRS_2.2.3
+SRS_3.1
+SRS_3.2
+SRS_3.3
+SRS_3.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,6 +253,13 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -251,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,12 +295,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -306,16 +351,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,11 +387,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -629,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -676,11 +733,11 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:26" ht="14.25">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
@@ -708,133 +765,137 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="38.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:26" ht="14.25">
+      <c r="A3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" s="6" customFormat="1" ht="38.25">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" s="28" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A4" s="17">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" s="18" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" ht="27" customHeight="1">
-      <c r="A5" s="26">
+      <c r="D5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="27" customHeight="1">
+      <c r="A6" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>27</v>
+      <c r="D6" s="20" t="s">
+        <v>25</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>21</v>
+      <c r="E6" s="20" t="s">
+        <v>35</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="52.5" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="2"/>
@@ -856,23 +917,15 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="69.75" customHeight="1">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
+    <row r="7" spans="1:26" ht="52.5" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -892,21 +945,23 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="153.75" customHeight="1">
+    <row r="8" spans="1:26" ht="69.75" customHeight="1">
       <c r="A8" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>30</v>
+      <c r="E8" s="17" t="s">
+        <v>34</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="2"/>
@@ -928,24 +983,26 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="40.5">
-      <c r="A9" s="7">
-        <v>5</v>
+    <row r="9" spans="1:26" ht="80.25" customHeight="1">
+      <c r="A9" s="9">
+        <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
+      <c r="D9" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -964,21 +1021,23 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="78" customHeight="1">
+    <row r="10" spans="1:26" ht="44.25" customHeight="1">
       <c r="A10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
+      <c r="E10" s="17" t="s">
+        <v>33</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
@@ -1000,12 +1059,23 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="13.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+    <row r="11" spans="1:26" ht="78" customHeight="1">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="30"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="1"/>
@@ -1028,14 +1098,13 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="13.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1643,16 +1712,16 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="12.75">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+    <row r="34" spans="1:26" ht="13.5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -28607,19 +28676,49 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
+    <row r="997" spans="1:26" ht="12.75">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+      <c r="F997" s="2"/>
+      <c r="G997" s="2"/>
+      <c r="H997" s="2"/>
+      <c r="I997" s="2"/>
+      <c r="J997" s="2"/>
+      <c r="K997" s="2"/>
+      <c r="L997" s="2"/>
+      <c r="M997" s="2"/>
+      <c r="N997" s="2"/>
+      <c r="O997" s="2"/>
+      <c r="P997" s="2"/>
+      <c r="Q997" s="2"/>
+      <c r="R997" s="2"/>
+      <c r="S997" s="2"/>
+      <c r="T997" s="2"/>
+      <c r="U997" s="2"/>
+      <c r="V997" s="2"/>
+      <c r="W997" s="2"/>
+      <c r="X997" s="2"/>
+      <c r="Y997" s="2"/>
+      <c r="Z997" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Managment/Requirments/ACS_RTM.xlsx
+++ b/Managment/Requirments/ACS_RTM.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI intake 38\26- Project Management with Embeded\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,26 +112,6 @@
 SIQ_23</t>
   </si>
   <si>
-    <t>TC_1.2
-TC_2.5
-TC_2.6</t>
-  </si>
-  <si>
-    <t>TC_1.5
-TC_1.6
-TC_3.4
-TC_3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-TC_1.3
-TC_1.4
-TC_3.1
-TC_3.2
-TC_3.3
-TC_3.4</t>
-  </si>
-  <si>
     <t>TC_1.7
 TC_1.8
 TC_1.9
@@ -139,18 +119,6 @@
 TC_3.6
 TC_3.7
 TC_5</t>
-  </si>
-  <si>
-    <t>TC_1.8
-TC_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-TC_1.9
-TC_2.1
-TC_2.2
-TC_2.3
-TC_2.4</t>
   </si>
   <si>
     <t>Version 2.0</t>
@@ -189,11 +157,45 @@
 SRS_3.3
 SRS_3.4</t>
   </si>
+  <si>
+    <t>TC_1.2
+TC_1.5
+TC_1.8
+TC_4</t>
+  </si>
+  <si>
+    <t>TC_1.6
+TC_1.7
+TC_3.3
+TC_3.4
+TC_3.5
+TC_3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_1.3
+TC_1.4
+TC_3.1
+TC_3.2
+TC_3.5
+TC_3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_1.9
+TC_2.1
+TC_2.2</t>
+  </si>
+  <si>
+    <t>TC_1.2
+TC_2.3
+TC_2.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="10"/>
@@ -309,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -363,7 +365,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -381,29 +404,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,15 +702,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="22" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="66.140625" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
@@ -704,16 +718,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -734,18 +748,18 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="14.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -766,18 +780,18 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.25">
-      <c r="A3" s="29" t="s">
-        <v>30</v>
+      <c r="A3" s="36" t="s">
+        <v>25</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="24" t="s">
-        <v>29</v>
+      <c r="B3" s="36"/>
+      <c r="C3" s="31" t="s">
+        <v>24</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -807,7 +821,7 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -852,12 +866,12 @@
         <v>19</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="3"/>
@@ -880,24 +894,24 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
-      <c r="A6" s="26">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>25</v>
+      <c r="D6" s="27" t="s">
+        <v>34</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>35</v>
+      <c r="E6" s="27" t="s">
+        <v>30</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -918,14 +932,14 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="52.5" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -955,13 +969,13 @@
       <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>24</v>
+      <c r="D8" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="2"/>
@@ -993,13 +1007,13 @@
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>28</v>
+      <c r="D9" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
       <c r="I9" s="2"/>
@@ -1031,13 +1045,13 @@
       <c r="C10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>23</v>
+      <c r="D10" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
@@ -1069,13 +1083,13 @@
       <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>26</v>
+      <c r="D11" s="19" t="s">
+        <v>23</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>36</v>
+      <c r="E11" s="21" t="s">
+        <v>31</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="1"/>
@@ -1128,7 +1142,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1156,7 +1170,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1184,7 +1198,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1212,7 +1226,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1240,7 +1254,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1268,7 +1282,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1296,7 +1310,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1324,7 +1338,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1352,7 +1366,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1380,7 +1394,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1408,7 +1422,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1436,7 +1450,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1464,7 +1478,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1492,7 +1506,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1520,7 +1534,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1548,7 +1562,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1576,7 +1590,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1604,7 +1618,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1632,7 +1646,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1660,7 +1674,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1688,7 +1702,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1716,7 +1730,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1744,7 +1758,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1772,7 +1786,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1800,7 +1814,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1828,7 +1842,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1856,7 +1870,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1884,7 +1898,7 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1912,7 +1926,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1940,7 +1954,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1968,7 +1982,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1996,7 +2010,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2024,7 +2038,7 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2052,7 +2066,7 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2080,7 +2094,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2108,7 +2122,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2136,7 +2150,7 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2164,7 +2178,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2192,7 +2206,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2220,7 +2234,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2248,7 +2262,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2276,7 +2290,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2304,7 +2318,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2332,7 +2346,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2360,7 +2374,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2388,7 +2402,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2416,7 +2430,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2444,7 +2458,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2472,7 +2486,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2500,7 +2514,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -2528,7 +2542,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -2556,7 +2570,7 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -2584,7 +2598,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2612,7 +2626,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2640,7 +2654,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2668,7 +2682,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -2696,7 +2710,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2724,7 +2738,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2752,7 +2766,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2780,7 +2794,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2808,7 +2822,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2836,7 +2850,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -2864,7 +2878,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -2892,7 +2906,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -2920,7 +2934,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2948,7 +2962,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -2976,7 +2990,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -3004,7 +3018,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -3032,7 +3046,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3060,7 +3074,7 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3088,7 +3102,7 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3116,7 +3130,7 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -3144,7 +3158,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -3172,7 +3186,7 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3200,7 +3214,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3228,7 +3242,7 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3256,7 +3270,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3284,7 +3298,7 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -3312,7 +3326,7 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -3340,7 +3354,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -3368,7 +3382,7 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="24"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -3396,7 +3410,7 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -3424,7 +3438,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="24"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3452,7 +3466,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3480,7 +3494,7 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="24"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3508,7 +3522,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="24"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3536,7 +3550,7 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="24"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3564,7 +3578,7 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="24"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3592,7 +3606,7 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -3620,7 +3634,7 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -3648,7 +3662,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -3676,7 +3690,7 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="24"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -3704,7 +3718,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -3732,7 +3746,7 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="24"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -3760,7 +3774,7 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -3788,7 +3802,7 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="24"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -3816,7 +3830,7 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="24"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -3844,7 +3858,7 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="24"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -3872,7 +3886,7 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -3900,7 +3914,7 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -3928,7 +3942,7 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3956,7 +3970,7 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="24"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -3984,7 +3998,7 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="24"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -4012,7 +4026,7 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="24"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -4040,7 +4054,7 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="24"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -4068,7 +4082,7 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="24"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -4096,7 +4110,7 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="24"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -4124,7 +4138,7 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="24"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -4152,7 +4166,7 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="24"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -4180,7 +4194,7 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="24"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -4208,7 +4222,7 @@
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="24"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -4236,7 +4250,7 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="24"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -4264,7 +4278,7 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="24"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -4292,7 +4306,7 @@
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="24"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -4320,7 +4334,7 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="24"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -4348,7 +4362,7 @@
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="24"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -4376,7 +4390,7 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="D129" s="24"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -4404,7 +4418,7 @@
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="24"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -4432,7 +4446,7 @@
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="24"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -4460,7 +4474,7 @@
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="24"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -4488,7 +4502,7 @@
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="D133" s="24"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -4516,7 +4530,7 @@
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="24"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -4544,7 +4558,7 @@
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="D135" s="24"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -4572,7 +4586,7 @@
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -4600,7 +4614,7 @@
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="24"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -4628,7 +4642,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="24"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -4656,7 +4670,7 @@
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="24"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -4684,7 +4698,7 @@
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="24"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -4712,7 +4726,7 @@
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="24"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -4740,7 +4754,7 @@
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="24"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -4768,7 +4782,7 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="24"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -4796,7 +4810,7 @@
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="24"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -4824,7 +4838,7 @@
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="24"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -4852,7 +4866,7 @@
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="24"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -4880,7 +4894,7 @@
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="24"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -4908,7 +4922,7 @@
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="24"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -4936,7 +4950,7 @@
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="D149" s="24"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -4964,7 +4978,7 @@
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="D150" s="24"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -4992,7 +5006,7 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="D151" s="24"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -5020,7 +5034,7 @@
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="24"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -5048,7 +5062,7 @@
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="D153" s="24"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -5076,7 +5090,7 @@
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="24"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -5104,7 +5118,7 @@
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="D155" s="24"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -5132,7 +5146,7 @@
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="24"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -5160,7 +5174,7 @@
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="D157" s="24"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -5188,7 +5202,7 @@
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="24"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -5216,7 +5230,7 @@
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="24"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -5244,7 +5258,7 @@
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="D160" s="24"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -5272,7 +5286,7 @@
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="D161" s="24"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -5300,7 +5314,7 @@
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="D162" s="24"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -5328,7 +5342,7 @@
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="D163" s="24"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -5356,7 +5370,7 @@
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="D164" s="24"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -5384,7 +5398,7 @@
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="D165" s="24"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -5412,7 +5426,7 @@
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="D166" s="24"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -5440,7 +5454,7 @@
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="D167" s="24"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -5468,7 +5482,7 @@
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
+      <c r="D168" s="24"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -5496,7 +5510,7 @@
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="24"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -5524,7 +5538,7 @@
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
+      <c r="D170" s="24"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -5552,7 +5566,7 @@
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="D171" s="24"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -5580,7 +5594,7 @@
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
+      <c r="D172" s="24"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -5608,7 +5622,7 @@
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="D173" s="24"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -5636,7 +5650,7 @@
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
+      <c r="D174" s="24"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -5664,7 +5678,7 @@
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="D175" s="24"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -5692,7 +5706,7 @@
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+      <c r="D176" s="24"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -5720,7 +5734,7 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
+      <c r="D177" s="24"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -5748,7 +5762,7 @@
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
+      <c r="D178" s="24"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -5776,7 +5790,7 @@
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="D179" s="24"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -5804,7 +5818,7 @@
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
+      <c r="D180" s="24"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -5832,7 +5846,7 @@
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="24"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -5860,7 +5874,7 @@
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="24"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -5888,7 +5902,7 @@
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="24"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -5916,7 +5930,7 @@
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="24"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -5944,7 +5958,7 @@
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="D185" s="24"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -5972,7 +5986,7 @@
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
+      <c r="D186" s="24"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -6000,7 +6014,7 @@
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
+      <c r="D187" s="24"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -6028,7 +6042,7 @@
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
+      <c r="D188" s="24"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -6056,7 +6070,7 @@
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+      <c r="D189" s="24"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -6084,7 +6098,7 @@
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
+      <c r="D190" s="24"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -6112,7 +6126,7 @@
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
+      <c r="D191" s="24"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -6140,7 +6154,7 @@
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
+      <c r="D192" s="24"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -6168,7 +6182,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
+      <c r="D193" s="24"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -6196,7 +6210,7 @@
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
+      <c r="D194" s="24"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -6224,7 +6238,7 @@
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
+      <c r="D195" s="24"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -6252,7 +6266,7 @@
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
+      <c r="D196" s="24"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -6280,7 +6294,7 @@
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
+      <c r="D197" s="24"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -6308,7 +6322,7 @@
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
+      <c r="D198" s="24"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -6336,7 +6350,7 @@
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
+      <c r="D199" s="24"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -6364,7 +6378,7 @@
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
+      <c r="D200" s="24"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -6392,7 +6406,7 @@
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
+      <c r="D201" s="24"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -6420,7 +6434,7 @@
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
+      <c r="D202" s="24"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -6448,7 +6462,7 @@
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
+      <c r="D203" s="24"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -6476,7 +6490,7 @@
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
+      <c r="D204" s="24"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -6504,7 +6518,7 @@
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
+      <c r="D205" s="24"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -6532,7 +6546,7 @@
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
+      <c r="D206" s="24"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -6560,7 +6574,7 @@
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
+      <c r="D207" s="24"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -6588,7 +6602,7 @@
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
+      <c r="D208" s="24"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -6616,7 +6630,7 @@
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="D209" s="24"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -6644,7 +6658,7 @@
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
+      <c r="D210" s="24"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -6672,7 +6686,7 @@
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
+      <c r="D211" s="24"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -6700,7 +6714,7 @@
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="24"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -6728,7 +6742,7 @@
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="24"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -6756,7 +6770,7 @@
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="24"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -6784,7 +6798,7 @@
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="24"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -6812,7 +6826,7 @@
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="24"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -6840,7 +6854,7 @@
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="24"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -6868,7 +6882,7 @@
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="24"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -6896,7 +6910,7 @@
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
+      <c r="D219" s="24"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -6924,7 +6938,7 @@
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
+      <c r="D220" s="24"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -6952,7 +6966,7 @@
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
+      <c r="D221" s="24"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -6980,7 +6994,7 @@
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
+      <c r="D222" s="24"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -7008,7 +7022,7 @@
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
+      <c r="D223" s="24"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -7036,7 +7050,7 @@
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
+      <c r="D224" s="24"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -7064,7 +7078,7 @@
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
+      <c r="D225" s="24"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -7092,7 +7106,7 @@
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
+      <c r="D226" s="24"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -7120,7 +7134,7 @@
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="D227" s="24"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -7148,7 +7162,7 @@
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="24"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -7176,7 +7190,7 @@
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
+      <c r="D229" s="24"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -7204,7 +7218,7 @@
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="24"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -7232,7 +7246,7 @@
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
+      <c r="D231" s="24"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -7260,7 +7274,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
+      <c r="D232" s="24"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -7288,7 +7302,7 @@
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
+      <c r="D233" s="24"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -7316,7 +7330,7 @@
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
+      <c r="D234" s="24"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -7344,7 +7358,7 @@
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
+      <c r="D235" s="24"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -7372,7 +7386,7 @@
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
+      <c r="D236" s="24"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -7400,7 +7414,7 @@
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
+      <c r="D237" s="24"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -7428,7 +7442,7 @@
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
+      <c r="D238" s="24"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -7456,7 +7470,7 @@
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
+      <c r="D239" s="24"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
@@ -7484,7 +7498,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
+      <c r="D240" s="24"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
@@ -7512,7 +7526,7 @@
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
+      <c r="D241" s="24"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
@@ -7540,7 +7554,7 @@
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
+      <c r="D242" s="24"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -7568,7 +7582,7 @@
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
+      <c r="D243" s="24"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
@@ -7596,7 +7610,7 @@
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
+      <c r="D244" s="24"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
@@ -7624,7 +7638,7 @@
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
+      <c r="D245" s="24"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
@@ -7652,7 +7666,7 @@
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
+      <c r="D246" s="24"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
@@ -7680,7 +7694,7 @@
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
+      <c r="D247" s="24"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
@@ -7708,7 +7722,7 @@
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
+      <c r="D248" s="24"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
@@ -7736,7 +7750,7 @@
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
+      <c r="D249" s="24"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -7764,7 +7778,7 @@
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
+      <c r="D250" s="24"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
@@ -7792,7 +7806,7 @@
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
+      <c r="D251" s="24"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
@@ -7820,7 +7834,7 @@
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
+      <c r="D252" s="24"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
@@ -7848,7 +7862,7 @@
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
+      <c r="D253" s="24"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -7876,7 +7890,7 @@
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
+      <c r="D254" s="24"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
@@ -7904,7 +7918,7 @@
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
+      <c r="D255" s="24"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
@@ -7932,7 +7946,7 @@
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
+      <c r="D256" s="24"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
@@ -7960,7 +7974,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
+      <c r="D257" s="24"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
@@ -7988,7 +8002,7 @@
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
+      <c r="D258" s="24"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
@@ -8016,7 +8030,7 @@
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
+      <c r="D259" s="24"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
@@ -8044,7 +8058,7 @@
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
+      <c r="D260" s="24"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
@@ -8072,7 +8086,7 @@
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
+      <c r="D261" s="24"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
@@ -8100,7 +8114,7 @@
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
+      <c r="D262" s="24"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -8128,7 +8142,7 @@
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
+      <c r="D263" s="24"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
@@ -8156,7 +8170,7 @@
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
+      <c r="D264" s="24"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -8184,7 +8198,7 @@
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
+      <c r="D265" s="24"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
@@ -8212,7 +8226,7 @@
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
+      <c r="D266" s="24"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -8240,7 +8254,7 @@
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
+      <c r="D267" s="24"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -8268,7 +8282,7 @@
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
+      <c r="D268" s="24"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -8296,7 +8310,7 @@
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
+      <c r="D269" s="24"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -8324,7 +8338,7 @@
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
+      <c r="D270" s="24"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -8352,7 +8366,7 @@
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
+      <c r="D271" s="24"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -8380,7 +8394,7 @@
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
+      <c r="D272" s="24"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -8408,7 +8422,7 @@
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
+      <c r="D273" s="24"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -8436,7 +8450,7 @@
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
+      <c r="D274" s="24"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -8464,7 +8478,7 @@
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
+      <c r="D275" s="24"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -8492,7 +8506,7 @@
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
+      <c r="D276" s="24"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
@@ -8520,7 +8534,7 @@
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
+      <c r="D277" s="24"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
@@ -8548,7 +8562,7 @@
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
+      <c r="D278" s="24"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
@@ -8576,7 +8590,7 @@
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
+      <c r="D279" s="24"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
@@ -8604,7 +8618,7 @@
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
+      <c r="D280" s="24"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
@@ -8632,7 +8646,7 @@
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
+      <c r="D281" s="24"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -8660,7 +8674,7 @@
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
+      <c r="D282" s="24"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -8688,7 +8702,7 @@
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
+      <c r="D283" s="24"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
@@ -8716,7 +8730,7 @@
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
+      <c r="D284" s="24"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -8744,7 +8758,7 @@
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
+      <c r="D285" s="24"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -8772,7 +8786,7 @@
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
+      <c r="D286" s="24"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -8800,7 +8814,7 @@
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
+      <c r="D287" s="24"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -8828,7 +8842,7 @@
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
+      <c r="D288" s="24"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
@@ -8856,7 +8870,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
+      <c r="D289" s="24"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
@@ -8884,7 +8898,7 @@
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
+      <c r="D290" s="24"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
@@ -8912,7 +8926,7 @@
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
+      <c r="D291" s="24"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
@@ -8940,7 +8954,7 @@
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
+      <c r="D292" s="24"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -8968,7 +8982,7 @@
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
+      <c r="D293" s="24"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -8996,7 +9010,7 @@
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
+      <c r="D294" s="24"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
@@ -9024,7 +9038,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
+      <c r="D295" s="24"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -9052,7 +9066,7 @@
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
+      <c r="D296" s="24"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
@@ -9080,7 +9094,7 @@
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
+      <c r="D297" s="24"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
@@ -9108,7 +9122,7 @@
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
+      <c r="D298" s="24"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
@@ -9136,7 +9150,7 @@
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
+      <c r="D299" s="24"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -9164,7 +9178,7 @@
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
+      <c r="D300" s="24"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -9192,7 +9206,7 @@
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
+      <c r="D301" s="24"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
@@ -9220,7 +9234,7 @@
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
+      <c r="D302" s="24"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
@@ -9248,7 +9262,7 @@
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
+      <c r="D303" s="24"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
@@ -9276,7 +9290,7 @@
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
+      <c r="D304" s="24"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
@@ -9304,7 +9318,7 @@
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
+      <c r="D305" s="24"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
@@ -9332,7 +9346,7 @@
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
+      <c r="D306" s="24"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
@@ -9360,7 +9374,7 @@
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
+      <c r="D307" s="24"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
@@ -9388,7 +9402,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
+      <c r="D308" s="24"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
@@ -9416,7 +9430,7 @@
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
+      <c r="D309" s="24"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
@@ -9444,7 +9458,7 @@
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
+      <c r="D310" s="24"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
@@ -9472,7 +9486,7 @@
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
+      <c r="D311" s="24"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
@@ -9500,7 +9514,7 @@
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
+      <c r="D312" s="24"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
@@ -9528,7 +9542,7 @@
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
+      <c r="D313" s="24"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
@@ -9556,7 +9570,7 @@
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
+      <c r="D314" s="24"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
@@ -9584,7 +9598,7 @@
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
+      <c r="D315" s="24"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
@@ -9612,7 +9626,7 @@
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
+      <c r="D316" s="24"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
@@ -9640,7 +9654,7 @@
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
+      <c r="D317" s="24"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
@@ -9668,7 +9682,7 @@
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
+      <c r="D318" s="24"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
@@ -9696,7 +9710,7 @@
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
+      <c r="D319" s="24"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
@@ -9724,7 +9738,7 @@
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
+      <c r="D320" s="24"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
@@ -9752,7 +9766,7 @@
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
+      <c r="D321" s="24"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -9780,7 +9794,7 @@
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
+      <c r="D322" s="24"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
@@ -9808,7 +9822,7 @@
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
+      <c r="D323" s="24"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
@@ -9836,7 +9850,7 @@
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
+      <c r="D324" s="24"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -9864,7 +9878,7 @@
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
+      <c r="D325" s="24"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -9892,7 +9906,7 @@
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
+      <c r="D326" s="24"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
@@ -9920,7 +9934,7 @@
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
+      <c r="D327" s="24"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
@@ -9948,7 +9962,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
+      <c r="D328" s="24"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
@@ -9976,7 +9990,7 @@
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
+      <c r="D329" s="24"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
@@ -10004,7 +10018,7 @@
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
+      <c r="D330" s="24"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -10032,7 +10046,7 @@
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
+      <c r="D331" s="24"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -10060,7 +10074,7 @@
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
+      <c r="D332" s="24"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
@@ -10088,7 +10102,7 @@
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
+      <c r="D333" s="24"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
@@ -10116,7 +10130,7 @@
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
+      <c r="D334" s="24"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
@@ -10144,7 +10158,7 @@
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
+      <c r="D335" s="24"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
@@ -10172,7 +10186,7 @@
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
+      <c r="D336" s="24"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
@@ -10200,7 +10214,7 @@
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
+      <c r="D337" s="24"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
@@ -10228,7 +10242,7 @@
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
+      <c r="D338" s="24"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
@@ -10256,7 +10270,7 @@
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
+      <c r="D339" s="24"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
@@ -10284,7 +10298,7 @@
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
+      <c r="D340" s="24"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
@@ -10312,7 +10326,7 @@
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
+      <c r="D341" s="24"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
@@ -10340,7 +10354,7 @@
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
+      <c r="D342" s="24"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
@@ -10368,7 +10382,7 @@
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
+      <c r="D343" s="24"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
@@ -10396,7 +10410,7 @@
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
+      <c r="D344" s="24"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
@@ -10424,7 +10438,7 @@
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
+      <c r="D345" s="24"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
@@ -10452,7 +10466,7 @@
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
+      <c r="D346" s="24"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
@@ -10480,7 +10494,7 @@
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
+      <c r="D347" s="24"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -10508,7 +10522,7 @@
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
+      <c r="D348" s="24"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
@@ -10536,7 +10550,7 @@
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
+      <c r="D349" s="24"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
@@ -10564,7 +10578,7 @@
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
+      <c r="D350" s="24"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
@@ -10592,7 +10606,7 @@
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
+      <c r="D351" s="24"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
@@ -10620,7 +10634,7 @@
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
+      <c r="D352" s="24"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -10648,7 +10662,7 @@
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
+      <c r="D353" s="24"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
@@ -10676,7 +10690,7 @@
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
+      <c r="D354" s="24"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
@@ -10704,7 +10718,7 @@
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
+      <c r="D355" s="24"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
@@ -10732,7 +10746,7 @@
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
+      <c r="D356" s="24"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
@@ -10760,7 +10774,7 @@
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
+      <c r="D357" s="24"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
@@ -10788,7 +10802,7 @@
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
+      <c r="D358" s="24"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
@@ -10816,7 +10830,7 @@
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
+      <c r="D359" s="24"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
@@ -10844,7 +10858,7 @@
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
+      <c r="D360" s="24"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
@@ -10872,7 +10886,7 @@
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
+      <c r="D361" s="24"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
@@ -10900,7 +10914,7 @@
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
+      <c r="D362" s="24"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
@@ -10928,7 +10942,7 @@
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
+      <c r="D363" s="24"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
@@ -10956,7 +10970,7 @@
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
+      <c r="D364" s="24"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
@@ -10984,7 +10998,7 @@
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
+      <c r="D365" s="24"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
@@ -11012,7 +11026,7 @@
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
+      <c r="D366" s="24"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
@@ -11040,7 +11054,7 @@
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
+      <c r="D367" s="24"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -11068,7 +11082,7 @@
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
+      <c r="D368" s="24"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
@@ -11096,7 +11110,7 @@
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
+      <c r="D369" s="24"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
@@ -11124,7 +11138,7 @@
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
+      <c r="D370" s="24"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
@@ -11152,7 +11166,7 @@
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
+      <c r="D371" s="24"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
@@ -11180,7 +11194,7 @@
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
+      <c r="D372" s="24"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
@@ -11208,7 +11222,7 @@
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
+      <c r="D373" s="24"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
@@ -11236,7 +11250,7 @@
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
+      <c r="D374" s="24"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -11264,7 +11278,7 @@
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
+      <c r="D375" s="24"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -11292,7 +11306,7 @@
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
+      <c r="D376" s="24"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -11320,7 +11334,7 @@
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
-      <c r="D377" s="2"/>
+      <c r="D377" s="24"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -11348,7 +11362,7 @@
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
+      <c r="D378" s="24"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -11376,7 +11390,7 @@
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
+      <c r="D379" s="24"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -11404,7 +11418,7 @@
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
+      <c r="D380" s="24"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -11432,7 +11446,7 @@
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
+      <c r="D381" s="24"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -11460,7 +11474,7 @@
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
+      <c r="D382" s="24"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
@@ -11488,7 +11502,7 @@
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
+      <c r="D383" s="24"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
@@ -11516,7 +11530,7 @@
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
+      <c r="D384" s="24"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
@@ -11544,7 +11558,7 @@
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
+      <c r="D385" s="24"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
@@ -11572,7 +11586,7 @@
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
+      <c r="D386" s="24"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
@@ -11600,7 +11614,7 @@
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
+      <c r="D387" s="24"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -11628,7 +11642,7 @@
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
-      <c r="D388" s="2"/>
+      <c r="D388" s="24"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -11656,7 +11670,7 @@
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
+      <c r="D389" s="24"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
@@ -11684,7 +11698,7 @@
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
+      <c r="D390" s="24"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
@@ -11712,7 +11726,7 @@
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
+      <c r="D391" s="24"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
@@ -11740,7 +11754,7 @@
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
+      <c r="D392" s="24"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
@@ -11768,7 +11782,7 @@
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
+      <c r="D393" s="24"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
@@ -11796,7 +11810,7 @@
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
+      <c r="D394" s="24"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
@@ -11824,7 +11838,7 @@
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
+      <c r="D395" s="24"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
@@ -11852,7 +11866,7 @@
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
+      <c r="D396" s="24"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
@@ -11880,7 +11894,7 @@
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
+      <c r="D397" s="24"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
@@ -11908,7 +11922,7 @@
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
+      <c r="D398" s="24"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
@@ -11936,7 +11950,7 @@
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
+      <c r="D399" s="24"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -11964,7 +11978,7 @@
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
+      <c r="D400" s="24"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -11992,7 +12006,7 @@
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
+      <c r="D401" s="24"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -12020,7 +12034,7 @@
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
+      <c r="D402" s="24"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
@@ -12048,7 +12062,7 @@
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
+      <c r="D403" s="24"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
@@ -12076,7 +12090,7 @@
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
+      <c r="D404" s="24"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
@@ -12104,7 +12118,7 @@
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
+      <c r="D405" s="24"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -12132,7 +12146,7 @@
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
+      <c r="D406" s="24"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
@@ -12160,7 +12174,7 @@
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
-      <c r="D407" s="2"/>
+      <c r="D407" s="24"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
@@ -12188,7 +12202,7 @@
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
+      <c r="D408" s="24"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
@@ -12216,7 +12230,7 @@
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
+      <c r="D409" s="24"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
@@ -12244,7 +12258,7 @@
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
+      <c r="D410" s="24"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
@@ -12272,7 +12286,7 @@
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
+      <c r="D411" s="24"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -12300,7 +12314,7 @@
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
+      <c r="D412" s="24"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -12328,7 +12342,7 @@
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
+      <c r="D413" s="24"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
@@ -12356,7 +12370,7 @@
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
+      <c r="D414" s="24"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
@@ -12384,7 +12398,7 @@
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
+      <c r="D415" s="24"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
@@ -12412,7 +12426,7 @@
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
+      <c r="D416" s="24"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
@@ -12440,7 +12454,7 @@
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
+      <c r="D417" s="24"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
@@ -12468,7 +12482,7 @@
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
+      <c r="D418" s="24"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
@@ -12496,7 +12510,7 @@
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
+      <c r="D419" s="24"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
@@ -12524,7 +12538,7 @@
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
+      <c r="D420" s="24"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
@@ -12552,7 +12566,7 @@
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
+      <c r="D421" s="24"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
@@ -12580,7 +12594,7 @@
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
+      <c r="D422" s="24"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
@@ -12608,7 +12622,7 @@
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
+      <c r="D423" s="24"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -12636,7 +12650,7 @@
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
+      <c r="D424" s="24"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -12664,7 +12678,7 @@
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
+      <c r="D425" s="24"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -12692,7 +12706,7 @@
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
+      <c r="D426" s="24"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
@@ -12720,7 +12734,7 @@
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
+      <c r="D427" s="24"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
@@ -12748,7 +12762,7 @@
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
+      <c r="D428" s="24"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
@@ -12776,7 +12790,7 @@
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
+      <c r="D429" s="24"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
@@ -12804,7 +12818,7 @@
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
+      <c r="D430" s="24"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
@@ -12832,7 +12846,7 @@
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
+      <c r="D431" s="24"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
@@ -12860,7 +12874,7 @@
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
+      <c r="D432" s="24"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
@@ -12888,7 +12902,7 @@
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
+      <c r="D433" s="24"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
@@ -12916,7 +12930,7 @@
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
+      <c r="D434" s="24"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
@@ -12944,7 +12958,7 @@
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
+      <c r="D435" s="24"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
@@ -12972,7 +12986,7 @@
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
+      <c r="D436" s="24"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
@@ -13000,7 +13014,7 @@
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
+      <c r="D437" s="24"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
@@ -13028,7 +13042,7 @@
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
+      <c r="D438" s="24"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
@@ -13056,7 +13070,7 @@
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
+      <c r="D439" s="24"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
@@ -13084,7 +13098,7 @@
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
+      <c r="D440" s="24"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
@@ -13112,7 +13126,7 @@
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
+      <c r="D441" s="24"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
@@ -13140,7 +13154,7 @@
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
+      <c r="D442" s="24"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
@@ -13168,7 +13182,7 @@
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
+      <c r="D443" s="24"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
@@ -13196,7 +13210,7 @@
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
+      <c r="D444" s="24"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
@@ -13224,7 +13238,7 @@
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
+      <c r="D445" s="24"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
@@ -13252,7 +13266,7 @@
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
+      <c r="D446" s="24"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
@@ -13280,7 +13294,7 @@
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
+      <c r="D447" s="24"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
@@ -13308,7 +13322,7 @@
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
+      <c r="D448" s="24"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
@@ -13336,7 +13350,7 @@
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
+      <c r="D449" s="24"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -13364,7 +13378,7 @@
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
+      <c r="D450" s="24"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
@@ -13392,7 +13406,7 @@
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
+      <c r="D451" s="24"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
@@ -13420,7 +13434,7 @@
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
+      <c r="D452" s="24"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
@@ -13448,7 +13462,7 @@
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
+      <c r="D453" s="24"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
@@ -13476,7 +13490,7 @@
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
+      <c r="D454" s="24"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
@@ -13504,7 +13518,7 @@
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
+      <c r="D455" s="24"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
@@ -13532,7 +13546,7 @@
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
+      <c r="D456" s="24"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
@@ -13560,7 +13574,7 @@
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
+      <c r="D457" s="24"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
@@ -13588,7 +13602,7 @@
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
+      <c r="D458" s="24"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
@@ -13616,7 +13630,7 @@
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
+      <c r="D459" s="24"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
@@ -13644,7 +13658,7 @@
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
+      <c r="D460" s="24"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
@@ -13672,7 +13686,7 @@
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
-      <c r="D461" s="2"/>
+      <c r="D461" s="24"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
@@ -13700,7 +13714,7 @@
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
-      <c r="D462" s="2"/>
+      <c r="D462" s="24"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="2"/>
@@ -13728,7 +13742,7 @@
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
-      <c r="D463" s="2"/>
+      <c r="D463" s="24"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
       <c r="G463" s="2"/>
@@ -13756,7 +13770,7 @@
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
+      <c r="D464" s="24"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
       <c r="G464" s="2"/>
@@ -13784,7 +13798,7 @@
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
-      <c r="D465" s="2"/>
+      <c r="D465" s="24"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
       <c r="G465" s="2"/>
@@ -13812,7 +13826,7 @@
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
-      <c r="D466" s="2"/>
+      <c r="D466" s="24"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="2"/>
@@ -13840,7 +13854,7 @@
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
-      <c r="D467" s="2"/>
+      <c r="D467" s="24"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
@@ -13868,7 +13882,7 @@
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
+      <c r="D468" s="24"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="2"/>
@@ -13896,7 +13910,7 @@
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
-      <c r="D469" s="2"/>
+      <c r="D469" s="24"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="2"/>
@@ -13924,7 +13938,7 @@
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
-      <c r="D470" s="2"/>
+      <c r="D470" s="24"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="2"/>
@@ -13952,7 +13966,7 @@
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
-      <c r="D471" s="2"/>
+      <c r="D471" s="24"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
@@ -13980,7 +13994,7 @@
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
-      <c r="D472" s="2"/>
+      <c r="D472" s="24"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="2"/>
@@ -14008,7 +14022,7 @@
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
+      <c r="D473" s="24"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
@@ -14036,7 +14050,7 @@
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
+      <c r="D474" s="24"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="2"/>
@@ -14064,7 +14078,7 @@
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
-      <c r="D475" s="2"/>
+      <c r="D475" s="24"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="2"/>
@@ -14092,7 +14106,7 @@
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
-      <c r="D476" s="2"/>
+      <c r="D476" s="24"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
       <c r="G476" s="2"/>
@@ -14120,7 +14134,7 @@
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
-      <c r="D477" s="2"/>
+      <c r="D477" s="24"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
       <c r="G477" s="2"/>
@@ -14148,7 +14162,7 @@
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
-      <c r="D478" s="2"/>
+      <c r="D478" s="24"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
       <c r="G478" s="2"/>
@@ -14176,7 +14190,7 @@
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
-      <c r="D479" s="2"/>
+      <c r="D479" s="24"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
       <c r="G479" s="2"/>
@@ -14204,7 +14218,7 @@
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
-      <c r="D480" s="2"/>
+      <c r="D480" s="24"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
       <c r="G480" s="2"/>
@@ -14232,7 +14246,7 @@
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
+      <c r="D481" s="24"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
       <c r="G481" s="2"/>
@@ -14260,7 +14274,7 @@
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
-      <c r="D482" s="2"/>
+      <c r="D482" s="24"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
       <c r="G482" s="2"/>
@@ -14288,7 +14302,7 @@
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
+      <c r="D483" s="24"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
       <c r="G483" s="2"/>
@@ -14316,7 +14330,7 @@
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
+      <c r="D484" s="24"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
       <c r="G484" s="2"/>
@@ -14344,7 +14358,7 @@
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
+      <c r="D485" s="24"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="2"/>
@@ -14372,7 +14386,7 @@
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
-      <c r="D486" s="2"/>
+      <c r="D486" s="24"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="2"/>
@@ -14400,7 +14414,7 @@
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
-      <c r="D487" s="2"/>
+      <c r="D487" s="24"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="2"/>
@@ -14428,7 +14442,7 @@
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
-      <c r="D488" s="2"/>
+      <c r="D488" s="24"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
       <c r="G488" s="2"/>
@@ -14456,7 +14470,7 @@
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
-      <c r="D489" s="2"/>
+      <c r="D489" s="24"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
       <c r="G489" s="2"/>
@@ -14484,7 +14498,7 @@
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
-      <c r="D490" s="2"/>
+      <c r="D490" s="24"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="2"/>
@@ -14512,7 +14526,7 @@
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
-      <c r="D491" s="2"/>
+      <c r="D491" s="24"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="2"/>
@@ -14540,7 +14554,7 @@
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
-      <c r="D492" s="2"/>
+      <c r="D492" s="24"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="2"/>
@@ -14568,7 +14582,7 @@
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
+      <c r="D493" s="24"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
       <c r="G493" s="2"/>
@@ -14596,7 +14610,7 @@
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
+      <c r="D494" s="24"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
       <c r="G494" s="2"/>
@@ -14624,7 +14638,7 @@
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
+      <c r="D495" s="24"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="2"/>
@@ -14652,7 +14666,7 @@
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
+      <c r="D496" s="24"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="2"/>
@@ -14680,7 +14694,7 @@
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
+      <c r="D497" s="24"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="2"/>
@@ -14708,7 +14722,7 @@
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
+      <c r="D498" s="24"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
@@ -14736,7 +14750,7 @@
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
-      <c r="D499" s="2"/>
+      <c r="D499" s="24"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
       <c r="G499" s="2"/>
@@ -14764,7 +14778,7 @@
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
-      <c r="D500" s="2"/>
+      <c r="D500" s="24"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
       <c r="G500" s="2"/>
@@ -14792,7 +14806,7 @@
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
-      <c r="D501" s="2"/>
+      <c r="D501" s="24"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
       <c r="G501" s="2"/>
@@ -14820,7 +14834,7 @@
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
-      <c r="D502" s="2"/>
+      <c r="D502" s="24"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
       <c r="G502" s="2"/>
@@ -14848,7 +14862,7 @@
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
-      <c r="D503" s="2"/>
+      <c r="D503" s="24"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="2"/>
@@ -14876,7 +14890,7 @@
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
-      <c r="D504" s="2"/>
+      <c r="D504" s="24"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
       <c r="G504" s="2"/>
@@ -14904,7 +14918,7 @@
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
+      <c r="D505" s="24"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
       <c r="G505" s="2"/>
@@ -14932,7 +14946,7 @@
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
+      <c r="D506" s="24"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
       <c r="G506" s="2"/>
@@ -14960,7 +14974,7 @@
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
+      <c r="D507" s="24"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
       <c r="G507" s="2"/>
@@ -14988,7 +15002,7 @@
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
-      <c r="D508" s="2"/>
+      <c r="D508" s="24"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
       <c r="G508" s="2"/>
@@ -15016,7 +15030,7 @@
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
-      <c r="D509" s="2"/>
+      <c r="D509" s="24"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
       <c r="G509" s="2"/>
@@ -15044,7 +15058,7 @@
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
+      <c r="D510" s="24"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
       <c r="G510" s="2"/>
@@ -15072,7 +15086,7 @@
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
+      <c r="D511" s="24"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
       <c r="G511" s="2"/>
@@ -15100,7 +15114,7 @@
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
+      <c r="D512" s="24"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
       <c r="G512" s="2"/>
@@ -15128,7 +15142,7 @@
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
+      <c r="D513" s="24"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
       <c r="G513" s="2"/>
@@ -15156,7 +15170,7 @@
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
-      <c r="D514" s="2"/>
+      <c r="D514" s="24"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
       <c r="G514" s="2"/>
@@ -15184,7 +15198,7 @@
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
-      <c r="D515" s="2"/>
+      <c r="D515" s="24"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
       <c r="G515" s="2"/>
@@ -15212,7 +15226,7 @@
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
-      <c r="D516" s="2"/>
+      <c r="D516" s="24"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
       <c r="G516" s="2"/>
@@ -15240,7 +15254,7 @@
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
-      <c r="D517" s="2"/>
+      <c r="D517" s="24"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
       <c r="G517" s="2"/>
@@ -15268,7 +15282,7 @@
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
-      <c r="D518" s="2"/>
+      <c r="D518" s="24"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
       <c r="G518" s="2"/>
@@ -15296,7 +15310,7 @@
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
-      <c r="D519" s="2"/>
+      <c r="D519" s="24"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
       <c r="G519" s="2"/>
@@ -15324,7 +15338,7 @@
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
-      <c r="D520" s="2"/>
+      <c r="D520" s="24"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
       <c r="G520" s="2"/>
@@ -15352,7 +15366,7 @@
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
-      <c r="D521" s="2"/>
+      <c r="D521" s="24"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
       <c r="G521" s="2"/>
@@ -15380,7 +15394,7 @@
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
-      <c r="D522" s="2"/>
+      <c r="D522" s="24"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
       <c r="G522" s="2"/>
@@ -15408,7 +15422,7 @@
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
-      <c r="D523" s="2"/>
+      <c r="D523" s="24"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
       <c r="G523" s="2"/>
@@ -15436,7 +15450,7 @@
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
-      <c r="D524" s="2"/>
+      <c r="D524" s="24"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="G524" s="2"/>
@@ -15464,7 +15478,7 @@
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
-      <c r="D525" s="2"/>
+      <c r="D525" s="24"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="2"/>
@@ -15492,7 +15506,7 @@
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
-      <c r="D526" s="2"/>
+      <c r="D526" s="24"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="2"/>
@@ -15520,7 +15534,7 @@
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
-      <c r="D527" s="2"/>
+      <c r="D527" s="24"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
       <c r="G527" s="2"/>
@@ -15548,7 +15562,7 @@
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
-      <c r="D528" s="2"/>
+      <c r="D528" s="24"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="G528" s="2"/>
@@ -15576,7 +15590,7 @@
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
-      <c r="D529" s="2"/>
+      <c r="D529" s="24"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="G529" s="2"/>
@@ -15604,7 +15618,7 @@
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
-      <c r="D530" s="2"/>
+      <c r="D530" s="24"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
       <c r="G530" s="2"/>
@@ -15632,7 +15646,7 @@
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
-      <c r="D531" s="2"/>
+      <c r="D531" s="24"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="G531" s="2"/>
@@ -15660,7 +15674,7 @@
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
-      <c r="D532" s="2"/>
+      <c r="D532" s="24"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
       <c r="G532" s="2"/>
@@ -15688,7 +15702,7 @@
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
-      <c r="D533" s="2"/>
+      <c r="D533" s="24"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
       <c r="G533" s="2"/>
@@ -15716,7 +15730,7 @@
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
-      <c r="D534" s="2"/>
+      <c r="D534" s="24"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
       <c r="G534" s="2"/>
@@ -15744,7 +15758,7 @@
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
-      <c r="D535" s="2"/>
+      <c r="D535" s="24"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
       <c r="G535" s="2"/>
@@ -15772,7 +15786,7 @@
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
-      <c r="D536" s="2"/>
+      <c r="D536" s="24"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="G536" s="2"/>
@@ -15800,7 +15814,7 @@
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
-      <c r="D537" s="2"/>
+      <c r="D537" s="24"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
       <c r="G537" s="2"/>
@@ -15828,7 +15842,7 @@
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
-      <c r="D538" s="2"/>
+      <c r="D538" s="24"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="G538" s="2"/>
@@ -15856,7 +15870,7 @@
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
-      <c r="D539" s="2"/>
+      <c r="D539" s="24"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="G539" s="2"/>
@@ -15884,7 +15898,7 @@
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
-      <c r="D540" s="2"/>
+      <c r="D540" s="24"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
       <c r="G540" s="2"/>
@@ -15912,7 +15926,7 @@
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
-      <c r="D541" s="2"/>
+      <c r="D541" s="24"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
       <c r="G541" s="2"/>
@@ -15940,7 +15954,7 @@
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
-      <c r="D542" s="2"/>
+      <c r="D542" s="24"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
       <c r="G542" s="2"/>
@@ -15968,7 +15982,7 @@
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
-      <c r="D543" s="2"/>
+      <c r="D543" s="24"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
       <c r="G543" s="2"/>
@@ -15996,7 +16010,7 @@
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
-      <c r="D544" s="2"/>
+      <c r="D544" s="24"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="2"/>
@@ -16024,7 +16038,7 @@
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
-      <c r="D545" s="2"/>
+      <c r="D545" s="24"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="G545" s="2"/>
@@ -16052,7 +16066,7 @@
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
-      <c r="D546" s="2"/>
+      <c r="D546" s="24"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
       <c r="G546" s="2"/>
@@ -16080,7 +16094,7 @@
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
-      <c r="D547" s="2"/>
+      <c r="D547" s="24"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
       <c r="G547" s="2"/>
@@ -16108,7 +16122,7 @@
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
-      <c r="D548" s="2"/>
+      <c r="D548" s="24"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="G548" s="2"/>
@@ -16136,7 +16150,7 @@
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
-      <c r="D549" s="2"/>
+      <c r="D549" s="24"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
       <c r="G549" s="2"/>
@@ -16164,7 +16178,7 @@
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
-      <c r="D550" s="2"/>
+      <c r="D550" s="24"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
       <c r="G550" s="2"/>
@@ -16192,7 +16206,7 @@
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
-      <c r="D551" s="2"/>
+      <c r="D551" s="24"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
       <c r="G551" s="2"/>
@@ -16220,7 +16234,7 @@
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
-      <c r="D552" s="2"/>
+      <c r="D552" s="24"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
       <c r="G552" s="2"/>
@@ -16248,7 +16262,7 @@
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
-      <c r="D553" s="2"/>
+      <c r="D553" s="24"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="G553" s="2"/>
@@ -16276,7 +16290,7 @@
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
-      <c r="D554" s="2"/>
+      <c r="D554" s="24"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
       <c r="G554" s="2"/>
@@ -16304,7 +16318,7 @@
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
-      <c r="D555" s="2"/>
+      <c r="D555" s="24"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="G555" s="2"/>
@@ -16332,7 +16346,7 @@
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
-      <c r="D556" s="2"/>
+      <c r="D556" s="24"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="G556" s="2"/>
@@ -16360,7 +16374,7 @@
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
-      <c r="D557" s="2"/>
+      <c r="D557" s="24"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="2"/>
@@ -16388,7 +16402,7 @@
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
-      <c r="D558" s="2"/>
+      <c r="D558" s="24"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="2"/>
@@ -16416,7 +16430,7 @@
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
-      <c r="D559" s="2"/>
+      <c r="D559" s="24"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
       <c r="G559" s="2"/>
@@ -16444,7 +16458,7 @@
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
-      <c r="D560" s="2"/>
+      <c r="D560" s="24"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
       <c r="G560" s="2"/>
@@ -16472,7 +16486,7 @@
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
-      <c r="D561" s="2"/>
+      <c r="D561" s="24"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="G561" s="2"/>
@@ -16500,7 +16514,7 @@
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
-      <c r="D562" s="2"/>
+      <c r="D562" s="24"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="G562" s="2"/>
@@ -16528,7 +16542,7 @@
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
-      <c r="D563" s="2"/>
+      <c r="D563" s="24"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="G563" s="2"/>
@@ -16556,7 +16570,7 @@
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
-      <c r="D564" s="2"/>
+      <c r="D564" s="24"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
       <c r="G564" s="2"/>
@@ -16584,7 +16598,7 @@
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
-      <c r="D565" s="2"/>
+      <c r="D565" s="24"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="G565" s="2"/>
@@ -16612,7 +16626,7 @@
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
-      <c r="D566" s="2"/>
+      <c r="D566" s="24"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="G566" s="2"/>
@@ -16640,7 +16654,7 @@
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
-      <c r="D567" s="2"/>
+      <c r="D567" s="24"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="G567" s="2"/>
@@ -16668,7 +16682,7 @@
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
-      <c r="D568" s="2"/>
+      <c r="D568" s="24"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="G568" s="2"/>
@@ -16696,7 +16710,7 @@
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
-      <c r="D569" s="2"/>
+      <c r="D569" s="24"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
       <c r="G569" s="2"/>
@@ -16724,7 +16738,7 @@
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
-      <c r="D570" s="2"/>
+      <c r="D570" s="24"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
       <c r="G570" s="2"/>
@@ -16752,7 +16766,7 @@
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
-      <c r="D571" s="2"/>
+      <c r="D571" s="24"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
       <c r="G571" s="2"/>
@@ -16780,7 +16794,7 @@
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
-      <c r="D572" s="2"/>
+      <c r="D572" s="24"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
       <c r="G572" s="2"/>
@@ -16808,7 +16822,7 @@
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
-      <c r="D573" s="2"/>
+      <c r="D573" s="24"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
       <c r="G573" s="2"/>
@@ -16836,7 +16850,7 @@
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
-      <c r="D574" s="2"/>
+      <c r="D574" s="24"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
       <c r="G574" s="2"/>
@@ -16864,7 +16878,7 @@
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
-      <c r="D575" s="2"/>
+      <c r="D575" s="24"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
       <c r="G575" s="2"/>
@@ -16892,7 +16906,7 @@
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
-      <c r="D576" s="2"/>
+      <c r="D576" s="24"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
       <c r="G576" s="2"/>
@@ -16920,7 +16934,7 @@
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
-      <c r="D577" s="2"/>
+      <c r="D577" s="24"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="G577" s="2"/>
@@ -16948,7 +16962,7 @@
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
-      <c r="D578" s="2"/>
+      <c r="D578" s="24"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="G578" s="2"/>
@@ -16976,7 +16990,7 @@
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
-      <c r="D579" s="2"/>
+      <c r="D579" s="24"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
       <c r="G579" s="2"/>
@@ -17004,7 +17018,7 @@
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
-      <c r="D580" s="2"/>
+      <c r="D580" s="24"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
       <c r="G580" s="2"/>
@@ -17032,7 +17046,7 @@
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
-      <c r="D581" s="2"/>
+      <c r="D581" s="24"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
       <c r="G581" s="2"/>
@@ -17060,7 +17074,7 @@
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
-      <c r="D582" s="2"/>
+      <c r="D582" s="24"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="2"/>
@@ -17088,7 +17102,7 @@
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
-      <c r="D583" s="2"/>
+      <c r="D583" s="24"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="2"/>
@@ -17116,7 +17130,7 @@
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
-      <c r="D584" s="2"/>
+      <c r="D584" s="24"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="G584" s="2"/>
@@ -17144,7 +17158,7 @@
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
-      <c r="D585" s="2"/>
+      <c r="D585" s="24"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
       <c r="G585" s="2"/>
@@ -17172,7 +17186,7 @@
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
-      <c r="D586" s="2"/>
+      <c r="D586" s="24"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="G586" s="2"/>
@@ -17200,7 +17214,7 @@
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
-      <c r="D587" s="2"/>
+      <c r="D587" s="24"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="G587" s="2"/>
@@ -17228,7 +17242,7 @@
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
-      <c r="D588" s="2"/>
+      <c r="D588" s="24"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
       <c r="G588" s="2"/>
@@ -17256,7 +17270,7 @@
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
-      <c r="D589" s="2"/>
+      <c r="D589" s="24"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="G589" s="2"/>
@@ -17284,7 +17298,7 @@
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
-      <c r="D590" s="2"/>
+      <c r="D590" s="24"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
       <c r="G590" s="2"/>
@@ -17312,7 +17326,7 @@
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
-      <c r="D591" s="2"/>
+      <c r="D591" s="24"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="G591" s="2"/>
@@ -17340,7 +17354,7 @@
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
-      <c r="D592" s="2"/>
+      <c r="D592" s="24"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
       <c r="G592" s="2"/>
@@ -17368,7 +17382,7 @@
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
-      <c r="D593" s="2"/>
+      <c r="D593" s="24"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
       <c r="G593" s="2"/>
@@ -17396,7 +17410,7 @@
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
-      <c r="D594" s="2"/>
+      <c r="D594" s="24"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
       <c r="G594" s="2"/>
@@ -17424,7 +17438,7 @@
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
-      <c r="D595" s="2"/>
+      <c r="D595" s="24"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
       <c r="G595" s="2"/>
@@ -17452,7 +17466,7 @@
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
-      <c r="D596" s="2"/>
+      <c r="D596" s="24"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
       <c r="G596" s="2"/>
@@ -17480,7 +17494,7 @@
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
-      <c r="D597" s="2"/>
+      <c r="D597" s="24"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
       <c r="G597" s="2"/>
@@ -17508,7 +17522,7 @@
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
-      <c r="D598" s="2"/>
+      <c r="D598" s="24"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
       <c r="G598" s="2"/>
@@ -17536,7 +17550,7 @@
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
-      <c r="D599" s="2"/>
+      <c r="D599" s="24"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
       <c r="G599" s="2"/>
@@ -17564,7 +17578,7 @@
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
-      <c r="D600" s="2"/>
+      <c r="D600" s="24"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
       <c r="G600" s="2"/>
@@ -17592,7 +17606,7 @@
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
-      <c r="D601" s="2"/>
+      <c r="D601" s="24"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
       <c r="G601" s="2"/>
@@ -17620,7 +17634,7 @@
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
-      <c r="D602" s="2"/>
+      <c r="D602" s="24"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
       <c r="G602" s="2"/>
@@ -17648,7 +17662,7 @@
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
-      <c r="D603" s="2"/>
+      <c r="D603" s="24"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
       <c r="G603" s="2"/>
@@ -17676,7 +17690,7 @@
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
-      <c r="D604" s="2"/>
+      <c r="D604" s="24"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
       <c r="G604" s="2"/>
@@ -17704,7 +17718,7 @@
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
-      <c r="D605" s="2"/>
+      <c r="D605" s="24"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
       <c r="G605" s="2"/>
@@ -17732,7 +17746,7 @@
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
-      <c r="D606" s="2"/>
+      <c r="D606" s="24"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
       <c r="G606" s="2"/>
@@ -17760,7 +17774,7 @@
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
-      <c r="D607" s="2"/>
+      <c r="D607" s="24"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
       <c r="G607" s="2"/>
@@ -17788,7 +17802,7 @@
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
-      <c r="D608" s="2"/>
+      <c r="D608" s="24"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
       <c r="G608" s="2"/>
@@ -17816,7 +17830,7 @@
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
-      <c r="D609" s="2"/>
+      <c r="D609" s="24"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
       <c r="G609" s="2"/>
@@ -17844,7 +17858,7 @@
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
-      <c r="D610" s="2"/>
+      <c r="D610" s="24"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
       <c r="G610" s="2"/>
@@ -17872,7 +17886,7 @@
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
-      <c r="D611" s="2"/>
+      <c r="D611" s="24"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
       <c r="G611" s="2"/>
@@ -17900,7 +17914,7 @@
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
-      <c r="D612" s="2"/>
+      <c r="D612" s="24"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
       <c r="G612" s="2"/>
@@ -17928,7 +17942,7 @@
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
-      <c r="D613" s="2"/>
+      <c r="D613" s="24"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
       <c r="G613" s="2"/>
@@ -17956,7 +17970,7 @@
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
-      <c r="D614" s="2"/>
+      <c r="D614" s="24"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
       <c r="G614" s="2"/>
@@ -17984,7 +17998,7 @@
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
-      <c r="D615" s="2"/>
+      <c r="D615" s="24"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
       <c r="G615" s="2"/>
@@ -18012,7 +18026,7 @@
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
-      <c r="D616" s="2"/>
+      <c r="D616" s="24"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
       <c r="G616" s="2"/>
@@ -18040,7 +18054,7 @@
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
-      <c r="D617" s="2"/>
+      <c r="D617" s="24"/>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
       <c r="G617" s="2"/>
@@ -18068,7 +18082,7 @@
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
-      <c r="D618" s="2"/>
+      <c r="D618" s="24"/>
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
       <c r="G618" s="2"/>
@@ -18096,7 +18110,7 @@
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
-      <c r="D619" s="2"/>
+      <c r="D619" s="24"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
       <c r="G619" s="2"/>
@@ -18124,7 +18138,7 @@
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
-      <c r="D620" s="2"/>
+      <c r="D620" s="24"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
       <c r="G620" s="2"/>
@@ -18152,7 +18166,7 @@
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
-      <c r="D621" s="2"/>
+      <c r="D621" s="24"/>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
       <c r="G621" s="2"/>
@@ -18180,7 +18194,7 @@
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
-      <c r="D622" s="2"/>
+      <c r="D622" s="24"/>
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
       <c r="G622" s="2"/>
@@ -18208,7 +18222,7 @@
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
-      <c r="D623" s="2"/>
+      <c r="D623" s="24"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
       <c r="G623" s="2"/>
@@ -18236,7 +18250,7 @@
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
-      <c r="D624" s="2"/>
+      <c r="D624" s="24"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
       <c r="G624" s="2"/>
@@ -18264,7 +18278,7 @@
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
-      <c r="D625" s="2"/>
+      <c r="D625" s="24"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
       <c r="G625" s="2"/>
@@ -18292,7 +18306,7 @@
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
-      <c r="D626" s="2"/>
+      <c r="D626" s="24"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
       <c r="G626" s="2"/>
@@ -18320,7 +18334,7 @@
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
-      <c r="D627" s="2"/>
+      <c r="D627" s="24"/>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
       <c r="G627" s="2"/>
@@ -18348,7 +18362,7 @@
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
-      <c r="D628" s="2"/>
+      <c r="D628" s="24"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
       <c r="G628" s="2"/>
@@ -18376,7 +18390,7 @@
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
-      <c r="D629" s="2"/>
+      <c r="D629" s="24"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
       <c r="G629" s="2"/>
@@ -18404,7 +18418,7 @@
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
-      <c r="D630" s="2"/>
+      <c r="D630" s="24"/>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
       <c r="G630" s="2"/>
@@ -18432,7 +18446,7 @@
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
-      <c r="D631" s="2"/>
+      <c r="D631" s="24"/>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
       <c r="G631" s="2"/>
@@ -18460,7 +18474,7 @@
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
-      <c r="D632" s="2"/>
+      <c r="D632" s="24"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
       <c r="G632" s="2"/>
@@ -18488,7 +18502,7 @@
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
-      <c r="D633" s="2"/>
+      <c r="D633" s="24"/>
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
       <c r="G633" s="2"/>
@@ -18516,7 +18530,7 @@
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
-      <c r="D634" s="2"/>
+      <c r="D634" s="24"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
       <c r="G634" s="2"/>
@@ -18544,7 +18558,7 @@
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
-      <c r="D635" s="2"/>
+      <c r="D635" s="24"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
       <c r="G635" s="2"/>
@@ -18572,7 +18586,7 @@
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
-      <c r="D636" s="2"/>
+      <c r="D636" s="24"/>
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
       <c r="G636" s="2"/>
@@ -18600,7 +18614,7 @@
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
-      <c r="D637" s="2"/>
+      <c r="D637" s="24"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
       <c r="G637" s="2"/>
@@ -18628,7 +18642,7 @@
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
-      <c r="D638" s="2"/>
+      <c r="D638" s="24"/>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
       <c r="G638" s="2"/>
@@ -18656,7 +18670,7 @@
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
-      <c r="D639" s="2"/>
+      <c r="D639" s="24"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
       <c r="G639" s="2"/>
@@ -18684,7 +18698,7 @@
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
-      <c r="D640" s="2"/>
+      <c r="D640" s="24"/>
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
       <c r="G640" s="2"/>
@@ -18712,7 +18726,7 @@
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
-      <c r="D641" s="2"/>
+      <c r="D641" s="24"/>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
       <c r="G641" s="2"/>
@@ -18740,7 +18754,7 @@
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
-      <c r="D642" s="2"/>
+      <c r="D642" s="24"/>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
       <c r="G642" s="2"/>
@@ -18768,7 +18782,7 @@
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
-      <c r="D643" s="2"/>
+      <c r="D643" s="24"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
       <c r="G643" s="2"/>
@@ -18796,7 +18810,7 @@
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
-      <c r="D644" s="2"/>
+      <c r="D644" s="24"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
       <c r="G644" s="2"/>
@@ -18824,7 +18838,7 @@
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
-      <c r="D645" s="2"/>
+      <c r="D645" s="24"/>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
       <c r="G645" s="2"/>
@@ -18852,7 +18866,7 @@
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
-      <c r="D646" s="2"/>
+      <c r="D646" s="24"/>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
       <c r="G646" s="2"/>
@@ -18880,7 +18894,7 @@
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
-      <c r="D647" s="2"/>
+      <c r="D647" s="24"/>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
       <c r="G647" s="2"/>
@@ -18908,7 +18922,7 @@
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
-      <c r="D648" s="2"/>
+      <c r="D648" s="24"/>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
       <c r="G648" s="2"/>
@@ -18936,7 +18950,7 @@
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
-      <c r="D649" s="2"/>
+      <c r="D649" s="24"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
       <c r="G649" s="2"/>
@@ -18964,7 +18978,7 @@
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
-      <c r="D650" s="2"/>
+      <c r="D650" s="24"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
       <c r="G650" s="2"/>
@@ -18992,7 +19006,7 @@
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
-      <c r="D651" s="2"/>
+      <c r="D651" s="24"/>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
       <c r="G651" s="2"/>
@@ -19020,7 +19034,7 @@
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
-      <c r="D652" s="2"/>
+      <c r="D652" s="24"/>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
       <c r="G652" s="2"/>
@@ -19048,7 +19062,7 @@
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
-      <c r="D653" s="2"/>
+      <c r="D653" s="24"/>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
       <c r="G653" s="2"/>
@@ -19076,7 +19090,7 @@
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
-      <c r="D654" s="2"/>
+      <c r="D654" s="24"/>
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
       <c r="G654" s="2"/>
@@ -19104,7 +19118,7 @@
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
-      <c r="D655" s="2"/>
+      <c r="D655" s="24"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
       <c r="G655" s="2"/>
@@ -19132,7 +19146,7 @@
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
-      <c r="D656" s="2"/>
+      <c r="D656" s="24"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
       <c r="G656" s="2"/>
@@ -19160,7 +19174,7 @@
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
-      <c r="D657" s="2"/>
+      <c r="D657" s="24"/>
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
       <c r="G657" s="2"/>
@@ -19188,7 +19202,7 @@
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
-      <c r="D658" s="2"/>
+      <c r="D658" s="24"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
       <c r="G658" s="2"/>
@@ -19216,7 +19230,7 @@
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
-      <c r="D659" s="2"/>
+      <c r="D659" s="24"/>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
       <c r="G659" s="2"/>
@@ -19244,7 +19258,7 @@
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
-      <c r="D660" s="2"/>
+      <c r="D660" s="24"/>
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
       <c r="G660" s="2"/>
@@ -19272,7 +19286,7 @@
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
-      <c r="D661" s="2"/>
+      <c r="D661" s="24"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
       <c r="G661" s="2"/>
@@ -19300,7 +19314,7 @@
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
-      <c r="D662" s="2"/>
+      <c r="D662" s="24"/>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
       <c r="G662" s="2"/>
@@ -19328,7 +19342,7 @@
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
-      <c r="D663" s="2"/>
+      <c r="D663" s="24"/>
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
       <c r="G663" s="2"/>
@@ -19356,7 +19370,7 @@
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
-      <c r="D664" s="2"/>
+      <c r="D664" s="24"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
       <c r="G664" s="2"/>
@@ -19384,7 +19398,7 @@
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
-      <c r="D665" s="2"/>
+      <c r="D665" s="24"/>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
       <c r="G665" s="2"/>
@@ -19412,7 +19426,7 @@
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
-      <c r="D666" s="2"/>
+      <c r="D666" s="24"/>
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
       <c r="G666" s="2"/>
@@ -19440,7 +19454,7 @@
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
-      <c r="D667" s="2"/>
+      <c r="D667" s="24"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
       <c r="G667" s="2"/>
@@ -19468,7 +19482,7 @@
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
-      <c r="D668" s="2"/>
+      <c r="D668" s="24"/>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
       <c r="G668" s="2"/>
@@ -19496,7 +19510,7 @@
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
-      <c r="D669" s="2"/>
+      <c r="D669" s="24"/>
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
       <c r="G669" s="2"/>
@@ -19524,7 +19538,7 @@
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
-      <c r="D670" s="2"/>
+      <c r="D670" s="24"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
       <c r="G670" s="2"/>
@@ -19552,7 +19566,7 @@
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
-      <c r="D671" s="2"/>
+      <c r="D671" s="24"/>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
       <c r="G671" s="2"/>
@@ -19580,7 +19594,7 @@
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
-      <c r="D672" s="2"/>
+      <c r="D672" s="24"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
       <c r="G672" s="2"/>
@@ -19608,7 +19622,7 @@
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
-      <c r="D673" s="2"/>
+      <c r="D673" s="24"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
       <c r="G673" s="2"/>
@@ -19636,7 +19650,7 @@
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
-      <c r="D674" s="2"/>
+      <c r="D674" s="24"/>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
       <c r="G674" s="2"/>
@@ -19664,7 +19678,7 @@
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
-      <c r="D675" s="2"/>
+      <c r="D675" s="24"/>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
       <c r="G675" s="2"/>
@@ -19692,7 +19706,7 @@
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
-      <c r="D676" s="2"/>
+      <c r="D676" s="24"/>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
       <c r="G676" s="2"/>
@@ -19720,7 +19734,7 @@
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
-      <c r="D677" s="2"/>
+      <c r="D677" s="24"/>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
       <c r="G677" s="2"/>
@@ -19748,7 +19762,7 @@
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
-      <c r="D678" s="2"/>
+      <c r="D678" s="24"/>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
       <c r="G678" s="2"/>
@@ -19776,7 +19790,7 @@
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
-      <c r="D679" s="2"/>
+      <c r="D679" s="24"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
       <c r="G679" s="2"/>
@@ -19804,7 +19818,7 @@
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
-      <c r="D680" s="2"/>
+      <c r="D680" s="24"/>
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
       <c r="G680" s="2"/>
@@ -19832,7 +19846,7 @@
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
-      <c r="D681" s="2"/>
+      <c r="D681" s="24"/>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
       <c r="G681" s="2"/>
@@ -19860,7 +19874,7 @@
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
-      <c r="D682" s="2"/>
+      <c r="D682" s="24"/>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
       <c r="G682" s="2"/>
@@ -19888,7 +19902,7 @@
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
-      <c r="D683" s="2"/>
+      <c r="D683" s="24"/>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
       <c r="G683" s="2"/>
@@ -19916,7 +19930,7 @@
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
-      <c r="D684" s="2"/>
+      <c r="D684" s="24"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
       <c r="G684" s="2"/>
@@ -19944,7 +19958,7 @@
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
-      <c r="D685" s="2"/>
+      <c r="D685" s="24"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
       <c r="G685" s="2"/>
@@ -19972,7 +19986,7 @@
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
-      <c r="D686" s="2"/>
+      <c r="D686" s="24"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
       <c r="G686" s="2"/>
@@ -20000,7 +20014,7 @@
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
-      <c r="D687" s="2"/>
+      <c r="D687" s="24"/>
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
       <c r="G687" s="2"/>
@@ -20028,7 +20042,7 @@
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
-      <c r="D688" s="2"/>
+      <c r="D688" s="24"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
       <c r="G688" s="2"/>
@@ -20056,7 +20070,7 @@
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
-      <c r="D689" s="2"/>
+      <c r="D689" s="24"/>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
       <c r="G689" s="2"/>
@@ -20084,7 +20098,7 @@
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
-      <c r="D690" s="2"/>
+      <c r="D690" s="24"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
       <c r="G690" s="2"/>
@@ -20112,7 +20126,7 @@
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
-      <c r="D691" s="2"/>
+      <c r="D691" s="24"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
       <c r="G691" s="2"/>
@@ -20140,7 +20154,7 @@
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
-      <c r="D692" s="2"/>
+      <c r="D692" s="24"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
       <c r="G692" s="2"/>
@@ -20168,7 +20182,7 @@
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
-      <c r="D693" s="2"/>
+      <c r="D693" s="24"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
       <c r="G693" s="2"/>
@@ -20196,7 +20210,7 @@
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
-      <c r="D694" s="2"/>
+      <c r="D694" s="24"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
       <c r="G694" s="2"/>
@@ -20224,7 +20238,7 @@
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
-      <c r="D695" s="2"/>
+      <c r="D695" s="24"/>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
       <c r="G695" s="2"/>
@@ -20252,7 +20266,7 @@
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
-      <c r="D696" s="2"/>
+      <c r="D696" s="24"/>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
       <c r="G696" s="2"/>
@@ -20280,7 +20294,7 @@
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
-      <c r="D697" s="2"/>
+      <c r="D697" s="24"/>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
       <c r="G697" s="2"/>
@@ -20308,7 +20322,7 @@
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
-      <c r="D698" s="2"/>
+      <c r="D698" s="24"/>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
       <c r="G698" s="2"/>
@@ -20336,7 +20350,7 @@
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
-      <c r="D699" s="2"/>
+      <c r="D699" s="24"/>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
       <c r="G699" s="2"/>
@@ -20364,7 +20378,7 @@
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
-      <c r="D700" s="2"/>
+      <c r="D700" s="24"/>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
       <c r="G700" s="2"/>
@@ -20392,7 +20406,7 @@
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
-      <c r="D701" s="2"/>
+      <c r="D701" s="24"/>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
       <c r="G701" s="2"/>
@@ -20420,7 +20434,7 @@
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
-      <c r="D702" s="2"/>
+      <c r="D702" s="24"/>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
       <c r="G702" s="2"/>
@@ -20448,7 +20462,7 @@
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
-      <c r="D703" s="2"/>
+      <c r="D703" s="24"/>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
       <c r="G703" s="2"/>
@@ -20476,7 +20490,7 @@
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
-      <c r="D704" s="2"/>
+      <c r="D704" s="24"/>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
       <c r="G704" s="2"/>
@@ -20504,7 +20518,7 @@
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
-      <c r="D705" s="2"/>
+      <c r="D705" s="24"/>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
       <c r="G705" s="2"/>
@@ -20532,7 +20546,7 @@
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
-      <c r="D706" s="2"/>
+      <c r="D706" s="24"/>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
       <c r="G706" s="2"/>
@@ -20560,7 +20574,7 @@
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
-      <c r="D707" s="2"/>
+      <c r="D707" s="24"/>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
       <c r="G707" s="2"/>
@@ -20588,7 +20602,7 @@
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
-      <c r="D708" s="2"/>
+      <c r="D708" s="24"/>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
       <c r="G708" s="2"/>
@@ -20616,7 +20630,7 @@
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
-      <c r="D709" s="2"/>
+      <c r="D709" s="24"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
       <c r="G709" s="2"/>
@@ -20644,7 +20658,7 @@
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
-      <c r="D710" s="2"/>
+      <c r="D710" s="24"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
       <c r="G710" s="2"/>
@@ -20672,7 +20686,7 @@
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
-      <c r="D711" s="2"/>
+      <c r="D711" s="24"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
       <c r="G711" s="2"/>
@@ -20700,7 +20714,7 @@
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
-      <c r="D712" s="2"/>
+      <c r="D712" s="24"/>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
       <c r="G712" s="2"/>
@@ -20728,7 +20742,7 @@
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
-      <c r="D713" s="2"/>
+      <c r="D713" s="24"/>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
       <c r="G713" s="2"/>
@@ -20756,7 +20770,7 @@
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
-      <c r="D714" s="2"/>
+      <c r="D714" s="24"/>
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
       <c r="G714" s="2"/>
@@ -20784,7 +20798,7 @@
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
-      <c r="D715" s="2"/>
+      <c r="D715" s="24"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
       <c r="G715" s="2"/>
@@ -20812,7 +20826,7 @@
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
-      <c r="D716" s="2"/>
+      <c r="D716" s="24"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
       <c r="G716" s="2"/>
@@ -20840,7 +20854,7 @@
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
-      <c r="D717" s="2"/>
+      <c r="D717" s="24"/>
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
       <c r="G717" s="2"/>
@@ -20868,7 +20882,7 @@
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
-      <c r="D718" s="2"/>
+      <c r="D718" s="24"/>
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
       <c r="G718" s="2"/>
@@ -20896,7 +20910,7 @@
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
-      <c r="D719" s="2"/>
+      <c r="D719" s="24"/>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
       <c r="G719" s="2"/>
@@ -20924,7 +20938,7 @@
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
-      <c r="D720" s="2"/>
+      <c r="D720" s="24"/>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
       <c r="G720" s="2"/>
@@ -20952,7 +20966,7 @@
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
-      <c r="D721" s="2"/>
+      <c r="D721" s="24"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
       <c r="G721" s="2"/>
@@ -20980,7 +20994,7 @@
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
-      <c r="D722" s="2"/>
+      <c r="D722" s="24"/>
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
       <c r="G722" s="2"/>
@@ -21008,7 +21022,7 @@
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
-      <c r="D723" s="2"/>
+      <c r="D723" s="24"/>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
       <c r="G723" s="2"/>
@@ -21036,7 +21050,7 @@
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
-      <c r="D724" s="2"/>
+      <c r="D724" s="24"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
       <c r="G724" s="2"/>
@@ -21064,7 +21078,7 @@
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
-      <c r="D725" s="2"/>
+      <c r="D725" s="24"/>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
       <c r="G725" s="2"/>
@@ -21092,7 +21106,7 @@
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
-      <c r="D726" s="2"/>
+      <c r="D726" s="24"/>
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
       <c r="G726" s="2"/>
@@ -21120,7 +21134,7 @@
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
-      <c r="D727" s="2"/>
+      <c r="D727" s="24"/>
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
       <c r="G727" s="2"/>
@@ -21148,7 +21162,7 @@
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
-      <c r="D728" s="2"/>
+      <c r="D728" s="24"/>
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
       <c r="G728" s="2"/>
@@ -21176,7 +21190,7 @@
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
-      <c r="D729" s="2"/>
+      <c r="D729" s="24"/>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
       <c r="G729" s="2"/>
@@ -21204,7 +21218,7 @@
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
-      <c r="D730" s="2"/>
+      <c r="D730" s="24"/>
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
       <c r="G730" s="2"/>
@@ -21232,7 +21246,7 @@
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
-      <c r="D731" s="2"/>
+      <c r="D731" s="24"/>
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
       <c r="G731" s="2"/>
@@ -21260,7 +21274,7 @@
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
-      <c r="D732" s="2"/>
+      <c r="D732" s="24"/>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
       <c r="G732" s="2"/>
@@ -21288,7 +21302,7 @@
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
-      <c r="D733" s="2"/>
+      <c r="D733" s="24"/>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
       <c r="G733" s="2"/>
@@ -21316,7 +21330,7 @@
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
-      <c r="D734" s="2"/>
+      <c r="D734" s="24"/>
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
       <c r="G734" s="2"/>
@@ -21344,7 +21358,7 @@
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
-      <c r="D735" s="2"/>
+      <c r="D735" s="24"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
       <c r="G735" s="2"/>
@@ -21372,7 +21386,7 @@
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
-      <c r="D736" s="2"/>
+      <c r="D736" s="24"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
       <c r="G736" s="2"/>
@@ -21400,7 +21414,7 @@
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
-      <c r="D737" s="2"/>
+      <c r="D737" s="24"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
       <c r="G737" s="2"/>
@@ -21428,7 +21442,7 @@
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
-      <c r="D738" s="2"/>
+      <c r="D738" s="24"/>
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
       <c r="G738" s="2"/>
@@ -21456,7 +21470,7 @@
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
-      <c r="D739" s="2"/>
+      <c r="D739" s="24"/>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
       <c r="G739" s="2"/>
@@ -21484,7 +21498,7 @@
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
-      <c r="D740" s="2"/>
+      <c r="D740" s="24"/>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
       <c r="G740" s="2"/>
@@ -21512,7 +21526,7 @@
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
-      <c r="D741" s="2"/>
+      <c r="D741" s="24"/>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
       <c r="G741" s="2"/>
@@ -21540,7 +21554,7 @@
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
-      <c r="D742" s="2"/>
+      <c r="D742" s="24"/>
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
       <c r="G742" s="2"/>
@@ -21568,7 +21582,7 @@
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
-      <c r="D743" s="2"/>
+      <c r="D743" s="24"/>
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
       <c r="G743" s="2"/>
@@ -21596,7 +21610,7 @@
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
-      <c r="D744" s="2"/>
+      <c r="D744" s="24"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
       <c r="G744" s="2"/>
@@ -21624,7 +21638,7 @@
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
-      <c r="D745" s="2"/>
+      <c r="D745" s="24"/>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
       <c r="G745" s="2"/>
@@ -21652,7 +21666,7 @@
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
-      <c r="D746" s="2"/>
+      <c r="D746" s="24"/>
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
       <c r="G746" s="2"/>
@@ -21680,7 +21694,7 @@
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
-      <c r="D747" s="2"/>
+      <c r="D747" s="24"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
       <c r="G747" s="2"/>
@@ -21708,7 +21722,7 @@
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
-      <c r="D748" s="2"/>
+      <c r="D748" s="24"/>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
       <c r="G748" s="2"/>
@@ -21736,7 +21750,7 @@
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
-      <c r="D749" s="2"/>
+      <c r="D749" s="24"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
       <c r="G749" s="2"/>
@@ -21764,7 +21778,7 @@
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
-      <c r="D750" s="2"/>
+      <c r="D750" s="24"/>
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
       <c r="G750" s="2"/>
@@ -21792,7 +21806,7 @@
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
-      <c r="D751" s="2"/>
+      <c r="D751" s="24"/>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
       <c r="G751" s="2"/>
@@ -21820,7 +21834,7 @@
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
-      <c r="D752" s="2"/>
+      <c r="D752" s="24"/>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
       <c r="G752" s="2"/>
@@ -21848,7 +21862,7 @@
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
-      <c r="D753" s="2"/>
+      <c r="D753" s="24"/>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
       <c r="G753" s="2"/>
@@ -21876,7 +21890,7 @@
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
-      <c r="D754" s="2"/>
+      <c r="D754" s="24"/>
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
       <c r="G754" s="2"/>
@@ -21904,7 +21918,7 @@
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
-      <c r="D755" s="2"/>
+      <c r="D755" s="24"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
       <c r="G755" s="2"/>
@@ -21932,7 +21946,7 @@
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
-      <c r="D756" s="2"/>
+      <c r="D756" s="24"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
       <c r="G756" s="2"/>
@@ -21960,7 +21974,7 @@
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
-      <c r="D757" s="2"/>
+      <c r="D757" s="24"/>
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
       <c r="G757" s="2"/>
@@ -21988,7 +22002,7 @@
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
-      <c r="D758" s="2"/>
+      <c r="D758" s="24"/>
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
       <c r="G758" s="2"/>
@@ -22016,7 +22030,7 @@
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
-      <c r="D759" s="2"/>
+      <c r="D759" s="24"/>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
       <c r="G759" s="2"/>
@@ -22044,7 +22058,7 @@
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
-      <c r="D760" s="2"/>
+      <c r="D760" s="24"/>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
       <c r="G760" s="2"/>
@@ -22072,7 +22086,7 @@
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
-      <c r="D761" s="2"/>
+      <c r="D761" s="24"/>
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
       <c r="G761" s="2"/>
@@ -22100,7 +22114,7 @@
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
-      <c r="D762" s="2"/>
+      <c r="D762" s="24"/>
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
       <c r="G762" s="2"/>
@@ -22128,7 +22142,7 @@
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
-      <c r="D763" s="2"/>
+      <c r="D763" s="24"/>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
       <c r="G763" s="2"/>
@@ -22156,7 +22170,7 @@
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
-      <c r="D764" s="2"/>
+      <c r="D764" s="24"/>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
       <c r="G764" s="2"/>
@@ -22184,7 +22198,7 @@
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
-      <c r="D765" s="2"/>
+      <c r="D765" s="24"/>
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
       <c r="G765" s="2"/>
@@ -22212,7 +22226,7 @@
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
-      <c r="D766" s="2"/>
+      <c r="D766" s="24"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
       <c r="G766" s="2"/>
@@ -22240,7 +22254,7 @@
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
-      <c r="D767" s="2"/>
+      <c r="D767" s="24"/>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
       <c r="G767" s="2"/>
@@ -22268,7 +22282,7 @@
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
-      <c r="D768" s="2"/>
+      <c r="D768" s="24"/>
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
       <c r="G768" s="2"/>
@@ -22296,7 +22310,7 @@
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
-      <c r="D769" s="2"/>
+      <c r="D769" s="24"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
       <c r="G769" s="2"/>
@@ -22324,7 +22338,7 @@
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
-      <c r="D770" s="2"/>
+      <c r="D770" s="24"/>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
       <c r="G770" s="2"/>
@@ -22352,7 +22366,7 @@
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
-      <c r="D771" s="2"/>
+      <c r="D771" s="24"/>
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
       <c r="G771" s="2"/>
@@ -22380,7 +22394,7 @@
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
-      <c r="D772" s="2"/>
+      <c r="D772" s="24"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
       <c r="G772" s="2"/>
@@ -22408,7 +22422,7 @@
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
-      <c r="D773" s="2"/>
+      <c r="D773" s="24"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
       <c r="G773" s="2"/>
@@ -22436,7 +22450,7 @@
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
-      <c r="D774" s="2"/>
+      <c r="D774" s="24"/>
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
       <c r="G774" s="2"/>
@@ -22464,7 +22478,7 @@
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
-      <c r="D775" s="2"/>
+      <c r="D775" s="24"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
       <c r="G775" s="2"/>
@@ -22492,7 +22506,7 @@
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
-      <c r="D776" s="2"/>
+      <c r="D776" s="24"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
       <c r="G776" s="2"/>
@@ -22520,7 +22534,7 @@
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
-      <c r="D777" s="2"/>
+      <c r="D777" s="24"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
       <c r="G777" s="2"/>
@@ -22548,7 +22562,7 @@
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
-      <c r="D778" s="2"/>
+      <c r="D778" s="24"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
       <c r="G778" s="2"/>
@@ -22576,7 +22590,7 @@
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
-      <c r="D779" s="2"/>
+      <c r="D779" s="24"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
       <c r="G779" s="2"/>
@@ -22604,7 +22618,7 @@
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
-      <c r="D780" s="2"/>
+      <c r="D780" s="24"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
       <c r="G780" s="2"/>
@@ -22632,7 +22646,7 @@
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
-      <c r="D781" s="2"/>
+      <c r="D781" s="24"/>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
       <c r="G781" s="2"/>
@@ -22660,7 +22674,7 @@
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
-      <c r="D782" s="2"/>
+      <c r="D782" s="24"/>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
       <c r="G782" s="2"/>
@@ -22688,7 +22702,7 @@
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
-      <c r="D783" s="2"/>
+      <c r="D783" s="24"/>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
       <c r="G783" s="2"/>
@@ -22716,7 +22730,7 @@
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
-      <c r="D784" s="2"/>
+      <c r="D784" s="24"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
       <c r="G784" s="2"/>
@@ -22744,7 +22758,7 @@
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
-      <c r="D785" s="2"/>
+      <c r="D785" s="24"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
       <c r="G785" s="2"/>
@@ -22772,7 +22786,7 @@
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
-      <c r="D786" s="2"/>
+      <c r="D786" s="24"/>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
       <c r="G786" s="2"/>
@@ -22800,7 +22814,7 @@
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
-      <c r="D787" s="2"/>
+      <c r="D787" s="24"/>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
       <c r="G787" s="2"/>
@@ -22828,7 +22842,7 @@
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
-      <c r="D788" s="2"/>
+      <c r="D788" s="24"/>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
       <c r="G788" s="2"/>
@@ -22856,7 +22870,7 @@
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
-      <c r="D789" s="2"/>
+      <c r="D789" s="24"/>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
       <c r="G789" s="2"/>
@@ -22884,7 +22898,7 @@
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
-      <c r="D790" s="2"/>
+      <c r="D790" s="24"/>
       <c r="E790" s="2"/>
       <c r="F790" s="2"/>
       <c r="G790" s="2"/>
@@ -22912,7 +22926,7 @@
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
-      <c r="D791" s="2"/>
+      <c r="D791" s="24"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
       <c r="G791" s="2"/>
@@ -22940,7 +22954,7 @@
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
-      <c r="D792" s="2"/>
+      <c r="D792" s="24"/>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
       <c r="G792" s="2"/>
@@ -22968,7 +22982,7 @@
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
-      <c r="D793" s="2"/>
+      <c r="D793" s="24"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
       <c r="G793" s="2"/>
@@ -22996,7 +23010,7 @@
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
-      <c r="D794" s="2"/>
+      <c r="D794" s="24"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
       <c r="G794" s="2"/>
@@ -23024,7 +23038,7 @@
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
-      <c r="D795" s="2"/>
+      <c r="D795" s="24"/>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
       <c r="G795" s="2"/>
@@ -23052,7 +23066,7 @@
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
-      <c r="D796" s="2"/>
+      <c r="D796" s="24"/>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
       <c r="G796" s="2"/>
@@ -23080,7 +23094,7 @@
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
-      <c r="D797" s="2"/>
+      <c r="D797" s="24"/>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
       <c r="G797" s="2"/>
@@ -23108,7 +23122,7 @@
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
-      <c r="D798" s="2"/>
+      <c r="D798" s="24"/>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
       <c r="G798" s="2"/>
@@ -23136,7 +23150,7 @@
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
-      <c r="D799" s="2"/>
+      <c r="D799" s="24"/>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
       <c r="G799" s="2"/>
@@ -23164,7 +23178,7 @@
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
-      <c r="D800" s="2"/>
+      <c r="D800" s="24"/>
       <c r="E800" s="2"/>
       <c r="F800" s="2"/>
       <c r="G800" s="2"/>
@@ -23192,7 +23206,7 @@
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
-      <c r="D801" s="2"/>
+      <c r="D801" s="24"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
       <c r="G801" s="2"/>
@@ -23220,7 +23234,7 @@
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
-      <c r="D802" s="2"/>
+      <c r="D802" s="24"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
       <c r="G802" s="2"/>
@@ -23248,7 +23262,7 @@
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
-      <c r="D803" s="2"/>
+      <c r="D803" s="24"/>
       <c r="E803" s="2"/>
       <c r="F803" s="2"/>
       <c r="G803" s="2"/>
@@ -23276,7 +23290,7 @@
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
-      <c r="D804" s="2"/>
+      <c r="D804" s="24"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
       <c r="G804" s="2"/>
@@ -23304,7 +23318,7 @@
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
-      <c r="D805" s="2"/>
+      <c r="D805" s="24"/>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
       <c r="G805" s="2"/>
@@ -23332,7 +23346,7 @@
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
-      <c r="D806" s="2"/>
+      <c r="D806" s="24"/>
       <c r="E806" s="2"/>
       <c r="F806" s="2"/>
       <c r="G806" s="2"/>
@@ -23360,7 +23374,7 @@
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
-      <c r="D807" s="2"/>
+      <c r="D807" s="24"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
       <c r="G807" s="2"/>
@@ -23388,7 +23402,7 @@
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
-      <c r="D808" s="2"/>
+      <c r="D808" s="24"/>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
       <c r="G808" s="2"/>
@@ -23416,7 +23430,7 @@
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
-      <c r="D809" s="2"/>
+      <c r="D809" s="24"/>
       <c r="E809" s="2"/>
       <c r="F809" s="2"/>
       <c r="G809" s="2"/>
@@ -23444,7 +23458,7 @@
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
-      <c r="D810" s="2"/>
+      <c r="D810" s="24"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
       <c r="G810" s="2"/>
@@ -23472,7 +23486,7 @@
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
-      <c r="D811" s="2"/>
+      <c r="D811" s="24"/>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
       <c r="G811" s="2"/>
@@ -23500,7 +23514,7 @@
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
-      <c r="D812" s="2"/>
+      <c r="D812" s="24"/>
       <c r="E812" s="2"/>
       <c r="F812" s="2"/>
       <c r="G812" s="2"/>
@@ -23528,7 +23542,7 @@
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
-      <c r="D813" s="2"/>
+      <c r="D813" s="24"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
       <c r="G813" s="2"/>
@@ -23556,7 +23570,7 @@
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
-      <c r="D814" s="2"/>
+      <c r="D814" s="24"/>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
       <c r="G814" s="2"/>
@@ -23584,7 +23598,7 @@
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
-      <c r="D815" s="2"/>
+      <c r="D815" s="24"/>
       <c r="E815" s="2"/>
       <c r="F815" s="2"/>
       <c r="G815" s="2"/>
@@ -23612,7 +23626,7 @@
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
-      <c r="D816" s="2"/>
+      <c r="D816" s="24"/>
       <c r="E816" s="2"/>
       <c r="F816" s="2"/>
       <c r="G816" s="2"/>
@@ -23640,7 +23654,7 @@
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
-      <c r="D817" s="2"/>
+      <c r="D817" s="24"/>
       <c r="E817" s="2"/>
       <c r="F817" s="2"/>
       <c r="G817" s="2"/>
@@ -23668,7 +23682,7 @@
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
-      <c r="D818" s="2"/>
+      <c r="D818" s="24"/>
       <c r="E818" s="2"/>
       <c r="F818" s="2"/>
       <c r="G818" s="2"/>
@@ -23696,7 +23710,7 @@
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
-      <c r="D819" s="2"/>
+      <c r="D819" s="24"/>
       <c r="E819" s="2"/>
       <c r="F819" s="2"/>
       <c r="G819" s="2"/>
@@ -23724,7 +23738,7 @@
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
-      <c r="D820" s="2"/>
+      <c r="D820" s="24"/>
       <c r="E820" s="2"/>
       <c r="F820" s="2"/>
       <c r="G820" s="2"/>
@@ -23752,7 +23766,7 @@
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
-      <c r="D821" s="2"/>
+      <c r="D821" s="24"/>
       <c r="E821" s="2"/>
       <c r="F821" s="2"/>
       <c r="G821" s="2"/>
@@ -23780,7 +23794,7 @@
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
-      <c r="D822" s="2"/>
+      <c r="D822" s="24"/>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
       <c r="G822" s="2"/>
@@ -23808,7 +23822,7 @@
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
-      <c r="D823" s="2"/>
+      <c r="D823" s="24"/>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
       <c r="G823" s="2"/>
@@ -23836,7 +23850,7 @@
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
-      <c r="D824" s="2"/>
+      <c r="D824" s="24"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
       <c r="G824" s="2"/>
@@ -23864,7 +23878,7 @@
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
-      <c r="D825" s="2"/>
+      <c r="D825" s="24"/>
       <c r="E825" s="2"/>
       <c r="F825" s="2"/>
       <c r="G825" s="2"/>
@@ -23892,7 +23906,7 @@
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
-      <c r="D826" s="2"/>
+      <c r="D826" s="24"/>
       <c r="E826" s="2"/>
       <c r="F826" s="2"/>
       <c r="G826" s="2"/>
@@ -23920,7 +23934,7 @@
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
-      <c r="D827" s="2"/>
+      <c r="D827" s="24"/>
       <c r="E827" s="2"/>
       <c r="F827" s="2"/>
       <c r="G827" s="2"/>
@@ -23948,7 +23962,7 @@
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
-      <c r="D828" s="2"/>
+      <c r="D828" s="24"/>
       <c r="E828" s="2"/>
       <c r="F828" s="2"/>
       <c r="G828" s="2"/>
@@ -23976,7 +23990,7 @@
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
-      <c r="D829" s="2"/>
+      <c r="D829" s="24"/>
       <c r="E829" s="2"/>
       <c r="F829" s="2"/>
       <c r="G829" s="2"/>
@@ -24004,7 +24018,7 @@
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
-      <c r="D830" s="2"/>
+      <c r="D830" s="24"/>
       <c r="E830" s="2"/>
       <c r="F830" s="2"/>
       <c r="G830" s="2"/>
@@ -24032,7 +24046,7 @@
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
-      <c r="D831" s="2"/>
+      <c r="D831" s="24"/>
       <c r="E831" s="2"/>
       <c r="F831" s="2"/>
       <c r="G831" s="2"/>
@@ -24060,7 +24074,7 @@
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
-      <c r="D832" s="2"/>
+      <c r="D832" s="24"/>
       <c r="E832" s="2"/>
       <c r="F832" s="2"/>
       <c r="G832" s="2"/>
@@ -24088,7 +24102,7 @@
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
-      <c r="D833" s="2"/>
+      <c r="D833" s="24"/>
       <c r="E833" s="2"/>
       <c r="F833" s="2"/>
       <c r="G833" s="2"/>
@@ -24116,7 +24130,7 @@
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
-      <c r="D834" s="2"/>
+      <c r="D834" s="24"/>
       <c r="E834" s="2"/>
       <c r="F834" s="2"/>
       <c r="G834" s="2"/>
@@ -24144,7 +24158,7 @@
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
-      <c r="D835" s="2"/>
+      <c r="D835" s="24"/>
       <c r="E835" s="2"/>
       <c r="F835" s="2"/>
       <c r="G835" s="2"/>
@@ -24172,7 +24186,7 @@
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
-      <c r="D836" s="2"/>
+      <c r="D836" s="24"/>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
       <c r="G836" s="2"/>
@@ -24200,7 +24214,7 @@
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
-      <c r="D837" s="2"/>
+      <c r="D837" s="24"/>
       <c r="E837" s="2"/>
       <c r="F837" s="2"/>
       <c r="G837" s="2"/>
@@ -24228,7 +24242,7 @@
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
-      <c r="D838" s="2"/>
+      <c r="D838" s="24"/>
       <c r="E838" s="2"/>
       <c r="F838" s="2"/>
       <c r="G838" s="2"/>
@@ -24256,7 +24270,7 @@
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
-      <c r="D839" s="2"/>
+      <c r="D839" s="24"/>
       <c r="E839" s="2"/>
       <c r="F839" s="2"/>
       <c r="G839" s="2"/>
@@ -24284,7 +24298,7 @@
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
-      <c r="D840" s="2"/>
+      <c r="D840" s="24"/>
       <c r="E840" s="2"/>
       <c r="F840" s="2"/>
       <c r="G840" s="2"/>
@@ -24312,7 +24326,7 @@
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
-      <c r="D841" s="2"/>
+      <c r="D841" s="24"/>
       <c r="E841" s="2"/>
       <c r="F841" s="2"/>
       <c r="G841" s="2"/>
@@ -24340,7 +24354,7 @@
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
-      <c r="D842" s="2"/>
+      <c r="D842" s="24"/>
       <c r="E842" s="2"/>
       <c r="F842" s="2"/>
       <c r="G842" s="2"/>
@@ -24368,7 +24382,7 @@
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
-      <c r="D843" s="2"/>
+      <c r="D843" s="24"/>
       <c r="E843" s="2"/>
       <c r="F843" s="2"/>
       <c r="G843" s="2"/>
@@ -24396,7 +24410,7 @@
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
-      <c r="D844" s="2"/>
+      <c r="D844" s="24"/>
       <c r="E844" s="2"/>
       <c r="F844" s="2"/>
       <c r="G844" s="2"/>
@@ -24424,7 +24438,7 @@
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
-      <c r="D845" s="2"/>
+      <c r="D845" s="24"/>
       <c r="E845" s="2"/>
       <c r="F845" s="2"/>
       <c r="G845" s="2"/>
@@ -24452,7 +24466,7 @@
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
-      <c r="D846" s="2"/>
+      <c r="D846" s="24"/>
       <c r="E846" s="2"/>
       <c r="F846" s="2"/>
       <c r="G846" s="2"/>
@@ -24480,7 +24494,7 @@
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
-      <c r="D847" s="2"/>
+      <c r="D847" s="24"/>
       <c r="E847" s="2"/>
       <c r="F847" s="2"/>
       <c r="G847" s="2"/>
@@ -24508,7 +24522,7 @@
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
-      <c r="D848" s="2"/>
+      <c r="D848" s="24"/>
       <c r="E848" s="2"/>
       <c r="F848" s="2"/>
       <c r="G848" s="2"/>
@@ -24536,7 +24550,7 @@
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
-      <c r="D849" s="2"/>
+      <c r="D849" s="24"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
       <c r="G849" s="2"/>
@@ -24564,7 +24578,7 @@
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
-      <c r="D850" s="2"/>
+      <c r="D850" s="24"/>
       <c r="E850" s="2"/>
       <c r="F850" s="2"/>
       <c r="G850" s="2"/>
@@ -24592,7 +24606,7 @@
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
-      <c r="D851" s="2"/>
+      <c r="D851" s="24"/>
       <c r="E851" s="2"/>
       <c r="F851" s="2"/>
       <c r="G851" s="2"/>
@@ -24620,7 +24634,7 @@
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
-      <c r="D852" s="2"/>
+      <c r="D852" s="24"/>
       <c r="E852" s="2"/>
       <c r="F852" s="2"/>
       <c r="G852" s="2"/>
@@ -24648,7 +24662,7 @@
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
-      <c r="D853" s="2"/>
+      <c r="D853" s="24"/>
       <c r="E853" s="2"/>
       <c r="F853" s="2"/>
       <c r="G853" s="2"/>
@@ -24676,7 +24690,7 @@
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
-      <c r="D854" s="2"/>
+      <c r="D854" s="24"/>
       <c r="E854" s="2"/>
       <c r="F854" s="2"/>
       <c r="G854" s="2"/>
@@ -24704,7 +24718,7 @@
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
-      <c r="D855" s="2"/>
+      <c r="D855" s="24"/>
       <c r="E855" s="2"/>
       <c r="F855" s="2"/>
       <c r="G855" s="2"/>
@@ -24732,7 +24746,7 @@
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
-      <c r="D856" s="2"/>
+      <c r="D856" s="24"/>
       <c r="E856" s="2"/>
       <c r="F856" s="2"/>
       <c r="G856" s="2"/>
@@ -24760,7 +24774,7 @@
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
-      <c r="D857" s="2"/>
+      <c r="D857" s="24"/>
       <c r="E857" s="2"/>
       <c r="F857" s="2"/>
       <c r="G857" s="2"/>
@@ -24788,7 +24802,7 @@
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
-      <c r="D858" s="2"/>
+      <c r="D858" s="24"/>
       <c r="E858" s="2"/>
       <c r="F858" s="2"/>
       <c r="G858" s="2"/>
@@ -24816,7 +24830,7 @@
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
-      <c r="D859" s="2"/>
+      <c r="D859" s="24"/>
       <c r="E859" s="2"/>
       <c r="F859" s="2"/>
       <c r="G859" s="2"/>
@@ -24844,7 +24858,7 @@
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
-      <c r="D860" s="2"/>
+      <c r="D860" s="24"/>
       <c r="E860" s="2"/>
       <c r="F860" s="2"/>
       <c r="G860" s="2"/>
@@ -24872,7 +24886,7 @@
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
-      <c r="D861" s="2"/>
+      <c r="D861" s="24"/>
       <c r="E861" s="2"/>
       <c r="F861" s="2"/>
       <c r="G861" s="2"/>
@@ -24900,7 +24914,7 @@
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
-      <c r="D862" s="2"/>
+      <c r="D862" s="24"/>
       <c r="E862" s="2"/>
       <c r="F862" s="2"/>
       <c r="G862" s="2"/>
@@ -24928,7 +24942,7 @@
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
-      <c r="D863" s="2"/>
+      <c r="D863" s="24"/>
       <c r="E863" s="2"/>
       <c r="F863" s="2"/>
       <c r="G863" s="2"/>
@@ -24956,7 +24970,7 @@
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
-      <c r="D864" s="2"/>
+      <c r="D864" s="24"/>
       <c r="E864" s="2"/>
       <c r="F864" s="2"/>
       <c r="G864" s="2"/>
@@ -24984,7 +24998,7 @@
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
-      <c r="D865" s="2"/>
+      <c r="D865" s="24"/>
       <c r="E865" s="2"/>
       <c r="F865" s="2"/>
       <c r="G865" s="2"/>
@@ -25012,7 +25026,7 @@
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
-      <c r="D866" s="2"/>
+      <c r="D866" s="24"/>
       <c r="E866" s="2"/>
       <c r="F866" s="2"/>
       <c r="G866" s="2"/>
@@ -25040,7 +25054,7 @@
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
-      <c r="D867" s="2"/>
+      <c r="D867" s="24"/>
       <c r="E867" s="2"/>
       <c r="F867" s="2"/>
       <c r="G867" s="2"/>
@@ -25068,7 +25082,7 @@
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
-      <c r="D868" s="2"/>
+      <c r="D868" s="24"/>
       <c r="E868" s="2"/>
       <c r="F868" s="2"/>
       <c r="G868" s="2"/>
@@ -25096,7 +25110,7 @@
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
-      <c r="D869" s="2"/>
+      <c r="D869" s="24"/>
       <c r="E869" s="2"/>
       <c r="F869" s="2"/>
       <c r="G869" s="2"/>
@@ -25124,7 +25138,7 @@
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
-      <c r="D870" s="2"/>
+      <c r="D870" s="24"/>
       <c r="E870" s="2"/>
       <c r="F870" s="2"/>
       <c r="G870" s="2"/>
@@ -25152,7 +25166,7 @@
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
-      <c r="D871" s="2"/>
+      <c r="D871" s="24"/>
       <c r="E871" s="2"/>
       <c r="F871" s="2"/>
       <c r="G871" s="2"/>
@@ -25180,7 +25194,7 @@
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
-      <c r="D872" s="2"/>
+      <c r="D872" s="24"/>
       <c r="E872" s="2"/>
       <c r="F872" s="2"/>
       <c r="G872" s="2"/>
@@ -25208,7 +25222,7 @@
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
-      <c r="D873" s="2"/>
+      <c r="D873" s="24"/>
       <c r="E873" s="2"/>
       <c r="F873" s="2"/>
       <c r="G873" s="2"/>
@@ -25236,7 +25250,7 @@
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
-      <c r="D874" s="2"/>
+      <c r="D874" s="24"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
       <c r="G874" s="2"/>
@@ -25264,7 +25278,7 @@
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
-      <c r="D875" s="2"/>
+      <c r="D875" s="24"/>
       <c r="E875" s="2"/>
       <c r="F875" s="2"/>
       <c r="G875" s="2"/>
@@ -25292,7 +25306,7 @@
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
-      <c r="D876" s="2"/>
+      <c r="D876" s="24"/>
       <c r="E876" s="2"/>
       <c r="F876" s="2"/>
       <c r="G876" s="2"/>
@@ -25320,7 +25334,7 @@
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
-      <c r="D877" s="2"/>
+      <c r="D877" s="24"/>
       <c r="E877" s="2"/>
       <c r="F877" s="2"/>
       <c r="G877" s="2"/>
@@ -25348,7 +25362,7 @@
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
-      <c r="D878" s="2"/>
+      <c r="D878" s="24"/>
       <c r="E878" s="2"/>
       <c r="F878" s="2"/>
       <c r="G878" s="2"/>
@@ -25376,7 +25390,7 @@
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
-      <c r="D879" s="2"/>
+      <c r="D879" s="24"/>
       <c r="E879" s="2"/>
       <c r="F879" s="2"/>
       <c r="G879" s="2"/>
@@ -25404,7 +25418,7 @@
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
-      <c r="D880" s="2"/>
+      <c r="D880" s="24"/>
       <c r="E880" s="2"/>
       <c r="F880" s="2"/>
       <c r="G880" s="2"/>
@@ -25432,7 +25446,7 @@
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
-      <c r="D881" s="2"/>
+      <c r="D881" s="24"/>
       <c r="E881" s="2"/>
       <c r="F881" s="2"/>
       <c r="G881" s="2"/>
@@ -25460,7 +25474,7 @@
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
-      <c r="D882" s="2"/>
+      <c r="D882" s="24"/>
       <c r="E882" s="2"/>
       <c r="F882" s="2"/>
       <c r="G882" s="2"/>
@@ -25488,7 +25502,7 @@
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
-      <c r="D883" s="2"/>
+      <c r="D883" s="24"/>
       <c r="E883" s="2"/>
       <c r="F883" s="2"/>
       <c r="G883" s="2"/>
@@ -25516,7 +25530,7 @@
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
-      <c r="D884" s="2"/>
+      <c r="D884" s="24"/>
       <c r="E884" s="2"/>
       <c r="F884" s="2"/>
       <c r="G884" s="2"/>
@@ -25544,7 +25558,7 @@
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
-      <c r="D885" s="2"/>
+      <c r="D885" s="24"/>
       <c r="E885" s="2"/>
       <c r="F885" s="2"/>
       <c r="G885" s="2"/>
@@ -25572,7 +25586,7 @@
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
-      <c r="D886" s="2"/>
+      <c r="D886" s="24"/>
       <c r="E886" s="2"/>
       <c r="F886" s="2"/>
       <c r="G886" s="2"/>
@@ -25600,7 +25614,7 @@
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
-      <c r="D887" s="2"/>
+      <c r="D887" s="24"/>
       <c r="E887" s="2"/>
       <c r="F887" s="2"/>
       <c r="G887" s="2"/>
@@ -25628,7 +25642,7 @@
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
-      <c r="D888" s="2"/>
+      <c r="D888" s="24"/>
       <c r="E888" s="2"/>
       <c r="F888" s="2"/>
       <c r="G888" s="2"/>
@@ -25656,7 +25670,7 @@
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
-      <c r="D889" s="2"/>
+      <c r="D889" s="24"/>
       <c r="E889" s="2"/>
       <c r="F889" s="2"/>
       <c r="G889" s="2"/>
@@ -25684,7 +25698,7 @@
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
-      <c r="D890" s="2"/>
+      <c r="D890" s="24"/>
       <c r="E890" s="2"/>
       <c r="F890" s="2"/>
       <c r="G890" s="2"/>
@@ -25712,7 +25726,7 @@
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
-      <c r="D891" s="2"/>
+      <c r="D891" s="24"/>
       <c r="E891" s="2"/>
       <c r="F891" s="2"/>
       <c r="G891" s="2"/>
@@ -25740,7 +25754,7 @@
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
-      <c r="D892" s="2"/>
+      <c r="D892" s="24"/>
       <c r="E892" s="2"/>
       <c r="F892" s="2"/>
       <c r="G892" s="2"/>
@@ -25768,7 +25782,7 @@
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
-      <c r="D893" s="2"/>
+      <c r="D893" s="24"/>
       <c r="E893" s="2"/>
       <c r="F893" s="2"/>
       <c r="G893" s="2"/>
@@ -25796,7 +25810,7 @@
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
-      <c r="D894" s="2"/>
+      <c r="D894" s="24"/>
       <c r="E894" s="2"/>
       <c r="F894" s="2"/>
       <c r="G894" s="2"/>
@@ -25824,7 +25838,7 @@
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
-      <c r="D895" s="2"/>
+      <c r="D895" s="24"/>
       <c r="E895" s="2"/>
       <c r="F895" s="2"/>
       <c r="G895" s="2"/>
@@ -25852,7 +25866,7 @@
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
-      <c r="D896" s="2"/>
+      <c r="D896" s="24"/>
       <c r="E896" s="2"/>
       <c r="F896" s="2"/>
       <c r="G896" s="2"/>
@@ -25880,7 +25894,7 @@
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
-      <c r="D897" s="2"/>
+      <c r="D897" s="24"/>
       <c r="E897" s="2"/>
       <c r="F897" s="2"/>
       <c r="G897" s="2"/>
@@ -25908,7 +25922,7 @@
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
-      <c r="D898" s="2"/>
+      <c r="D898" s="24"/>
       <c r="E898" s="2"/>
       <c r="F898" s="2"/>
       <c r="G898" s="2"/>
@@ -25936,7 +25950,7 @@
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
-      <c r="D899" s="2"/>
+      <c r="D899" s="24"/>
       <c r="E899" s="2"/>
       <c r="F899" s="2"/>
       <c r="G899" s="2"/>
@@ -25964,7 +25978,7 @@
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
-      <c r="D900" s="2"/>
+      <c r="D900" s="24"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
       <c r="G900" s="2"/>
@@ -25992,7 +26006,7 @@
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
-      <c r="D901" s="2"/>
+      <c r="D901" s="24"/>
       <c r="E901" s="2"/>
       <c r="F901" s="2"/>
       <c r="G901" s="2"/>
@@ -26020,7 +26034,7 @@
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
-      <c r="D902" s="2"/>
+      <c r="D902" s="24"/>
       <c r="E902" s="2"/>
       <c r="F902" s="2"/>
       <c r="G902" s="2"/>
@@ -26048,7 +26062,7 @@
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
-      <c r="D903" s="2"/>
+      <c r="D903" s="24"/>
       <c r="E903" s="2"/>
       <c r="F903" s="2"/>
       <c r="G903" s="2"/>
@@ -26076,7 +26090,7 @@
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
-      <c r="D904" s="2"/>
+      <c r="D904" s="24"/>
       <c r="E904" s="2"/>
       <c r="F904" s="2"/>
       <c r="G904" s="2"/>
@@ -26104,7 +26118,7 @@
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
-      <c r="D905" s="2"/>
+      <c r="D905" s="24"/>
       <c r="E905" s="2"/>
       <c r="F905" s="2"/>
       <c r="G905" s="2"/>
@@ -26132,7 +26146,7 @@
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
-      <c r="D906" s="2"/>
+      <c r="D906" s="24"/>
       <c r="E906" s="2"/>
       <c r="F906" s="2"/>
       <c r="G906" s="2"/>
@@ -26160,7 +26174,7 @@
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
-      <c r="D907" s="2"/>
+      <c r="D907" s="24"/>
       <c r="E907" s="2"/>
       <c r="F907" s="2"/>
       <c r="G907" s="2"/>
@@ -26188,7 +26202,7 @@
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
-      <c r="D908" s="2"/>
+      <c r="D908" s="24"/>
       <c r="E908" s="2"/>
       <c r="F908" s="2"/>
       <c r="G908" s="2"/>
@@ -26216,7 +26230,7 @@
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
-      <c r="D909" s="2"/>
+      <c r="D909" s="24"/>
       <c r="E909" s="2"/>
       <c r="F909" s="2"/>
       <c r="G909" s="2"/>
@@ -26244,7 +26258,7 @@
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
-      <c r="D910" s="2"/>
+      <c r="D910" s="24"/>
       <c r="E910" s="2"/>
       <c r="F910" s="2"/>
       <c r="G910" s="2"/>
@@ -26272,7 +26286,7 @@
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
-      <c r="D911" s="2"/>
+      <c r="D911" s="24"/>
       <c r="E911" s="2"/>
       <c r="F911" s="2"/>
       <c r="G911" s="2"/>
@@ -26300,7 +26314,7 @@
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
-      <c r="D912" s="2"/>
+      <c r="D912" s="24"/>
       <c r="E912" s="2"/>
       <c r="F912" s="2"/>
       <c r="G912" s="2"/>
@@ -26328,7 +26342,7 @@
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
-      <c r="D913" s="2"/>
+      <c r="D913" s="24"/>
       <c r="E913" s="2"/>
       <c r="F913" s="2"/>
       <c r="G913" s="2"/>
@@ -26356,7 +26370,7 @@
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
-      <c r="D914" s="2"/>
+      <c r="D914" s="24"/>
       <c r="E914" s="2"/>
       <c r="F914" s="2"/>
       <c r="G914" s="2"/>
@@ -26384,7 +26398,7 @@
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
-      <c r="D915" s="2"/>
+      <c r="D915" s="24"/>
       <c r="E915" s="2"/>
       <c r="F915" s="2"/>
       <c r="G915" s="2"/>
@@ -26412,7 +26426,7 @@
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
-      <c r="D916" s="2"/>
+      <c r="D916" s="24"/>
       <c r="E916" s="2"/>
       <c r="F916" s="2"/>
       <c r="G916" s="2"/>
@@ -26440,7 +26454,7 @@
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
-      <c r="D917" s="2"/>
+      <c r="D917" s="24"/>
       <c r="E917" s="2"/>
       <c r="F917" s="2"/>
       <c r="G917" s="2"/>
@@ -26468,7 +26482,7 @@
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
-      <c r="D918" s="2"/>
+      <c r="D918" s="24"/>
       <c r="E918" s="2"/>
       <c r="F918" s="2"/>
       <c r="G918" s="2"/>
@@ -26496,7 +26510,7 @@
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
-      <c r="D919" s="2"/>
+      <c r="D919" s="24"/>
       <c r="E919" s="2"/>
       <c r="F919" s="2"/>
       <c r="G919" s="2"/>
@@ -26524,7 +26538,7 @@
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
-      <c r="D920" s="2"/>
+      <c r="D920" s="24"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
       <c r="G920" s="2"/>
@@ -26552,7 +26566,7 @@
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
-      <c r="D921" s="2"/>
+      <c r="D921" s="24"/>
       <c r="E921" s="2"/>
       <c r="F921" s="2"/>
       <c r="G921" s="2"/>
@@ -26580,7 +26594,7 @@
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
-      <c r="D922" s="2"/>
+      <c r="D922" s="24"/>
       <c r="E922" s="2"/>
       <c r="F922" s="2"/>
       <c r="G922" s="2"/>
@@ -26608,7 +26622,7 @@
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
-      <c r="D923" s="2"/>
+      <c r="D923" s="24"/>
       <c r="E923" s="2"/>
       <c r="F923" s="2"/>
       <c r="G923" s="2"/>
@@ -26636,7 +26650,7 @@
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
-      <c r="D924" s="2"/>
+      <c r="D924" s="24"/>
       <c r="E924" s="2"/>
       <c r="F924" s="2"/>
       <c r="G924" s="2"/>
@@ -26664,7 +26678,7 @@
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
-      <c r="D925" s="2"/>
+      <c r="D925" s="24"/>
       <c r="E925" s="2"/>
       <c r="F925" s="2"/>
       <c r="G925" s="2"/>
@@ -26692,7 +26706,7 @@
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
-      <c r="D926" s="2"/>
+      <c r="D926" s="24"/>
       <c r="E926" s="2"/>
       <c r="F926" s="2"/>
       <c r="G926" s="2"/>
@@ -26720,7 +26734,7 @@
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
-      <c r="D927" s="2"/>
+      <c r="D927" s="24"/>
       <c r="E927" s="2"/>
       <c r="F927" s="2"/>
       <c r="G927" s="2"/>
@@ -26748,7 +26762,7 @@
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
-      <c r="D928" s="2"/>
+      <c r="D928" s="24"/>
       <c r="E928" s="2"/>
       <c r="F928" s="2"/>
       <c r="G928" s="2"/>
@@ -26776,7 +26790,7 @@
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
-      <c r="D929" s="2"/>
+      <c r="D929" s="24"/>
       <c r="E929" s="2"/>
       <c r="F929" s="2"/>
       <c r="G929" s="2"/>
@@ -26804,7 +26818,7 @@
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
-      <c r="D930" s="2"/>
+      <c r="D930" s="24"/>
       <c r="E930" s="2"/>
       <c r="F930" s="2"/>
       <c r="G930" s="2"/>
@@ -26832,7 +26846,7 @@
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
-      <c r="D931" s="2"/>
+      <c r="D931" s="24"/>
       <c r="E931" s="2"/>
       <c r="F931" s="2"/>
       <c r="G931" s="2"/>
@@ -26860,7 +26874,7 @@
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
-      <c r="D932" s="2"/>
+      <c r="D932" s="24"/>
       <c r="E932" s="2"/>
       <c r="F932" s="2"/>
       <c r="G932" s="2"/>
@@ -26888,7 +26902,7 @@
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
-      <c r="D933" s="2"/>
+      <c r="D933" s="24"/>
       <c r="E933" s="2"/>
       <c r="F933" s="2"/>
       <c r="G933" s="2"/>
@@ -26916,7 +26930,7 @@
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
-      <c r="D934" s="2"/>
+      <c r="D934" s="24"/>
       <c r="E934" s="2"/>
       <c r="F934" s="2"/>
       <c r="G934" s="2"/>
@@ -26944,7 +26958,7 @@
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
-      <c r="D935" s="2"/>
+      <c r="D935" s="24"/>
       <c r="E935" s="2"/>
       <c r="F935" s="2"/>
       <c r="G935" s="2"/>
@@ -26972,7 +26986,7 @@
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
-      <c r="D936" s="2"/>
+      <c r="D936" s="24"/>
       <c r="E936" s="2"/>
       <c r="F936" s="2"/>
       <c r="G936" s="2"/>
@@ -27000,7 +27014,7 @@
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
-      <c r="D937" s="2"/>
+      <c r="D937" s="24"/>
       <c r="E937" s="2"/>
       <c r="F937" s="2"/>
       <c r="G937" s="2"/>
@@ -27028,7 +27042,7 @@
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
-      <c r="D938" s="2"/>
+      <c r="D938" s="24"/>
       <c r="E938" s="2"/>
       <c r="F938" s="2"/>
       <c r="G938" s="2"/>
@@ -27056,7 +27070,7 @@
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
-      <c r="D939" s="2"/>
+      <c r="D939" s="24"/>
       <c r="E939" s="2"/>
       <c r="F939" s="2"/>
       <c r="G939" s="2"/>
@@ -27084,7 +27098,7 @@
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
-      <c r="D940" s="2"/>
+      <c r="D940" s="24"/>
       <c r="E940" s="2"/>
       <c r="F940" s="2"/>
       <c r="G940" s="2"/>
@@ -27112,7 +27126,7 @@
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
-      <c r="D941" s="2"/>
+      <c r="D941" s="24"/>
       <c r="E941" s="2"/>
       <c r="F941" s="2"/>
       <c r="G941" s="2"/>
@@ -27140,7 +27154,7 @@
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
-      <c r="D942" s="2"/>
+      <c r="D942" s="24"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
       <c r="G942" s="2"/>
@@ -27168,7 +27182,7 @@
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
-      <c r="D943" s="2"/>
+      <c r="D943" s="24"/>
       <c r="E943" s="2"/>
       <c r="F943" s="2"/>
       <c r="G943" s="2"/>
@@ -27196,7 +27210,7 @@
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
-      <c r="D944" s="2"/>
+      <c r="D944" s="24"/>
       <c r="E944" s="2"/>
       <c r="F944" s="2"/>
       <c r="G944" s="2"/>
@@ -27224,7 +27238,7 @@
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
-      <c r="D945" s="2"/>
+      <c r="D945" s="24"/>
       <c r="E945" s="2"/>
       <c r="F945" s="2"/>
       <c r="G945" s="2"/>
@@ -27252,7 +27266,7 @@
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
-      <c r="D946" s="2"/>
+      <c r="D946" s="24"/>
       <c r="E946" s="2"/>
       <c r="F946" s="2"/>
       <c r="G946" s="2"/>
@@ -27280,7 +27294,7 @@
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
-      <c r="D947" s="2"/>
+      <c r="D947" s="24"/>
       <c r="E947" s="2"/>
       <c r="F947" s="2"/>
       <c r="G947" s="2"/>
@@ -27308,7 +27322,7 @@
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
-      <c r="D948" s="2"/>
+      <c r="D948" s="24"/>
       <c r="E948" s="2"/>
       <c r="F948" s="2"/>
       <c r="G948" s="2"/>
@@ -27336,7 +27350,7 @@
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
-      <c r="D949" s="2"/>
+      <c r="D949" s="24"/>
       <c r="E949" s="2"/>
       <c r="F949" s="2"/>
       <c r="G949" s="2"/>
@@ -27364,7 +27378,7 @@
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
-      <c r="D950" s="2"/>
+      <c r="D950" s="24"/>
       <c r="E950" s="2"/>
       <c r="F950" s="2"/>
       <c r="G950" s="2"/>
@@ -27392,7 +27406,7 @@
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
-      <c r="D951" s="2"/>
+      <c r="D951" s="24"/>
       <c r="E951" s="2"/>
       <c r="F951" s="2"/>
       <c r="G951" s="2"/>
@@ -27420,7 +27434,7 @@
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
-      <c r="D952" s="2"/>
+      <c r="D952" s="24"/>
       <c r="E952" s="2"/>
       <c r="F952" s="2"/>
       <c r="G952" s="2"/>
@@ -27448,7 +27462,7 @@
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
-      <c r="D953" s="2"/>
+      <c r="D953" s="24"/>
       <c r="E953" s="2"/>
       <c r="F953" s="2"/>
       <c r="G953" s="2"/>
@@ -27476,7 +27490,7 @@
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
-      <c r="D954" s="2"/>
+      <c r="D954" s="24"/>
       <c r="E954" s="2"/>
       <c r="F954" s="2"/>
       <c r="G954" s="2"/>
@@ -27504,7 +27518,7 @@
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
-      <c r="D955" s="2"/>
+      <c r="D955" s="24"/>
       <c r="E955" s="2"/>
       <c r="F955" s="2"/>
       <c r="G955" s="2"/>
@@ -27532,7 +27546,7 @@
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
-      <c r="D956" s="2"/>
+      <c r="D956" s="24"/>
       <c r="E956" s="2"/>
       <c r="F956" s="2"/>
       <c r="G956" s="2"/>
@@ -27560,7 +27574,7 @@
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
-      <c r="D957" s="2"/>
+      <c r="D957" s="24"/>
       <c r="E957" s="2"/>
       <c r="F957" s="2"/>
       <c r="G957" s="2"/>
@@ -27588,7 +27602,7 @@
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
-      <c r="D958" s="2"/>
+      <c r="D958" s="24"/>
       <c r="E958" s="2"/>
       <c r="F958" s="2"/>
       <c r="G958" s="2"/>
@@ -27616,7 +27630,7 @@
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
-      <c r="D959" s="2"/>
+      <c r="D959" s="24"/>
       <c r="E959" s="2"/>
       <c r="F959" s="2"/>
       <c r="G959" s="2"/>
@@ -27644,7 +27658,7 @@
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
-      <c r="D960" s="2"/>
+      <c r="D960" s="24"/>
       <c r="E960" s="2"/>
       <c r="F960" s="2"/>
       <c r="G960" s="2"/>
@@ -27672,7 +27686,7 @@
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
-      <c r="D961" s="2"/>
+      <c r="D961" s="24"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
       <c r="G961" s="2"/>
@@ -27700,7 +27714,7 @@
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
-      <c r="D962" s="2"/>
+      <c r="D962" s="24"/>
       <c r="E962" s="2"/>
       <c r="F962" s="2"/>
       <c r="G962" s="2"/>
@@ -27728,7 +27742,7 @@
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
-      <c r="D963" s="2"/>
+      <c r="D963" s="24"/>
       <c r="E963" s="2"/>
       <c r="F963" s="2"/>
       <c r="G963" s="2"/>
@@ -27756,7 +27770,7 @@
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
-      <c r="D964" s="2"/>
+      <c r="D964" s="24"/>
       <c r="E964" s="2"/>
       <c r="F964" s="2"/>
       <c r="G964" s="2"/>
@@ -27784,7 +27798,7 @@
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
-      <c r="D965" s="2"/>
+      <c r="D965" s="24"/>
       <c r="E965" s="2"/>
       <c r="F965" s="2"/>
       <c r="G965" s="2"/>
@@ -27812,7 +27826,7 @@
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
-      <c r="D966" s="2"/>
+      <c r="D966" s="24"/>
       <c r="E966" s="2"/>
       <c r="F966" s="2"/>
       <c r="G966" s="2"/>
@@ -27840,7 +27854,7 @@
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
-      <c r="D967" s="2"/>
+      <c r="D967" s="24"/>
       <c r="E967" s="2"/>
       <c r="F967" s="2"/>
       <c r="G967" s="2"/>
@@ -27868,7 +27882,7 @@
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
-      <c r="D968" s="2"/>
+      <c r="D968" s="24"/>
       <c r="E968" s="2"/>
       <c r="F968" s="2"/>
       <c r="G968" s="2"/>
@@ -27896,7 +27910,7 @@
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
-      <c r="D969" s="2"/>
+      <c r="D969" s="24"/>
       <c r="E969" s="2"/>
       <c r="F969" s="2"/>
       <c r="G969" s="2"/>
@@ -27924,7 +27938,7 @@
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
-      <c r="D970" s="2"/>
+      <c r="D970" s="24"/>
       <c r="E970" s="2"/>
       <c r="F970" s="2"/>
       <c r="G970" s="2"/>
@@ -27952,7 +27966,7 @@
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
-      <c r="D971" s="2"/>
+      <c r="D971" s="24"/>
       <c r="E971" s="2"/>
       <c r="F971" s="2"/>
       <c r="G971" s="2"/>
@@ -27980,7 +27994,7 @@
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
-      <c r="D972" s="2"/>
+      <c r="D972" s="24"/>
       <c r="E972" s="2"/>
       <c r="F972" s="2"/>
       <c r="G972" s="2"/>
@@ -28008,7 +28022,7 @@
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
-      <c r="D973" s="2"/>
+      <c r="D973" s="24"/>
       <c r="E973" s="2"/>
       <c r="F973" s="2"/>
       <c r="G973" s="2"/>
@@ -28036,7 +28050,7 @@
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
-      <c r="D974" s="2"/>
+      <c r="D974" s="24"/>
       <c r="E974" s="2"/>
       <c r="F974" s="2"/>
       <c r="G974" s="2"/>
@@ -28064,7 +28078,7 @@
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
-      <c r="D975" s="2"/>
+      <c r="D975" s="24"/>
       <c r="E975" s="2"/>
       <c r="F975" s="2"/>
       <c r="G975" s="2"/>
@@ -28092,7 +28106,7 @@
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
-      <c r="D976" s="2"/>
+      <c r="D976" s="24"/>
       <c r="E976" s="2"/>
       <c r="F976" s="2"/>
       <c r="G976" s="2"/>
@@ -28120,7 +28134,7 @@
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
-      <c r="D977" s="2"/>
+      <c r="D977" s="24"/>
       <c r="E977" s="2"/>
       <c r="F977" s="2"/>
       <c r="G977" s="2"/>
@@ -28148,7 +28162,7 @@
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
-      <c r="D978" s="2"/>
+      <c r="D978" s="24"/>
       <c r="E978" s="2"/>
       <c r="F978" s="2"/>
       <c r="G978" s="2"/>
@@ -28176,7 +28190,7 @@
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
-      <c r="D979" s="2"/>
+      <c r="D979" s="24"/>
       <c r="E979" s="2"/>
       <c r="F979" s="2"/>
       <c r="G979" s="2"/>
@@ -28204,7 +28218,7 @@
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
-      <c r="D980" s="2"/>
+      <c r="D980" s="24"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
       <c r="G980" s="2"/>
@@ -28232,7 +28246,7 @@
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
-      <c r="D981" s="2"/>
+      <c r="D981" s="24"/>
       <c r="E981" s="2"/>
       <c r="F981" s="2"/>
       <c r="G981" s="2"/>
@@ -28260,7 +28274,7 @@
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
-      <c r="D982" s="2"/>
+      <c r="D982" s="24"/>
       <c r="E982" s="2"/>
       <c r="F982" s="2"/>
       <c r="G982" s="2"/>
@@ -28288,7 +28302,7 @@
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
-      <c r="D983" s="2"/>
+      <c r="D983" s="24"/>
       <c r="E983" s="2"/>
       <c r="F983" s="2"/>
       <c r="G983" s="2"/>
@@ -28316,7 +28330,7 @@
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
-      <c r="D984" s="2"/>
+      <c r="D984" s="24"/>
       <c r="E984" s="2"/>
       <c r="F984" s="2"/>
       <c r="G984" s="2"/>
@@ -28344,7 +28358,7 @@
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
-      <c r="D985" s="2"/>
+      <c r="D985" s="24"/>
       <c r="E985" s="2"/>
       <c r="F985" s="2"/>
       <c r="G985" s="2"/>
@@ -28372,7 +28386,7 @@
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
-      <c r="D986" s="2"/>
+      <c r="D986" s="24"/>
       <c r="E986" s="2"/>
       <c r="F986" s="2"/>
       <c r="G986" s="2"/>
@@ -28400,7 +28414,7 @@
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
-      <c r="D987" s="2"/>
+      <c r="D987" s="24"/>
       <c r="E987" s="2"/>
       <c r="F987" s="2"/>
       <c r="G987" s="2"/>
@@ -28428,7 +28442,7 @@
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
-      <c r="D988" s="2"/>
+      <c r="D988" s="24"/>
       <c r="E988" s="2"/>
       <c r="F988" s="2"/>
       <c r="G988" s="2"/>
@@ -28456,7 +28470,7 @@
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
-      <c r="D989" s="2"/>
+      <c r="D989" s="24"/>
       <c r="E989" s="2"/>
       <c r="F989" s="2"/>
       <c r="G989" s="2"/>
@@ -28484,7 +28498,7 @@
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
-      <c r="D990" s="2"/>
+      <c r="D990" s="24"/>
       <c r="E990" s="2"/>
       <c r="F990" s="2"/>
       <c r="G990" s="2"/>
@@ -28512,7 +28526,7 @@
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
-      <c r="D991" s="2"/>
+      <c r="D991" s="24"/>
       <c r="E991" s="2"/>
       <c r="F991" s="2"/>
       <c r="G991" s="2"/>
@@ -28540,7 +28554,7 @@
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
-      <c r="D992" s="2"/>
+      <c r="D992" s="24"/>
       <c r="E992" s="2"/>
       <c r="F992" s="2"/>
       <c r="G992" s="2"/>
@@ -28568,7 +28582,7 @@
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
-      <c r="D993" s="2"/>
+      <c r="D993" s="24"/>
       <c r="E993" s="2"/>
       <c r="F993" s="2"/>
       <c r="G993" s="2"/>
@@ -28596,7 +28610,7 @@
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
-      <c r="D994" s="2"/>
+      <c r="D994" s="24"/>
       <c r="E994" s="2"/>
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
@@ -28624,7 +28638,7 @@
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
-      <c r="D995" s="2"/>
+      <c r="D995" s="24"/>
       <c r="E995" s="2"/>
       <c r="F995" s="2"/>
       <c r="G995" s="2"/>
@@ -28652,7 +28666,7 @@
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
+      <c r="D996" s="24"/>
       <c r="E996" s="2"/>
       <c r="F996" s="2"/>
       <c r="G996" s="2"/>
@@ -28680,7 +28694,7 @@
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
+      <c r="D997" s="24"/>
       <c r="E997" s="2"/>
       <c r="F997" s="2"/>
       <c r="G997" s="2"/>
